--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.61198396006145</v>
+        <v>25.61198396006142</v>
       </c>
       <c r="C2">
-        <v>21.40014763436458</v>
+        <v>21.40014763436459</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.913093547681697</v>
+        <v>7.913093547681724</v>
       </c>
       <c r="F2">
-        <v>37.74127906680985</v>
+        <v>37.74127906680987</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.99229986363865</v>
+        <v>25.99229986363872</v>
       </c>
       <c r="I2">
-        <v>11.403539816186</v>
+        <v>11.40353981618606</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.75707931252106</v>
+        <v>23.75707931252095</v>
       </c>
       <c r="C3">
-        <v>19.81534963264077</v>
+        <v>19.81534963264083</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.438644115698096</v>
+        <v>7.438644115698049</v>
       </c>
       <c r="F3">
-        <v>35.16046698259411</v>
+        <v>35.16046698259409</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.81611417825026</v>
+        <v>24.81611417825027</v>
       </c>
       <c r="I3">
-        <v>11.16331118469046</v>
+        <v>11.16331118469049</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56430014827745</v>
+        <v>22.56430014827758</v>
       </c>
       <c r="C4">
-        <v>18.79958993979118</v>
+        <v>18.79958993979117</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.133050411883691</v>
+        <v>7.133050411883597</v>
       </c>
       <c r="F4">
         <v>33.55465698731781</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.1056851616344</v>
+        <v>24.10568516163429</v>
       </c>
       <c r="I4">
-        <v>11.03012841227132</v>
+        <v>11.03012841227119</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.19262954176214</v>
+        <v>12.19262954176206</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06433673088866</v>
+        <v>22.06433673088864</v>
       </c>
       <c r="C5">
-        <v>18.37457710800138</v>
+        <v>18.37457710800143</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.004917771545998</v>
+        <v>7.004917771545853</v>
       </c>
       <c r="F5">
-        <v>32.88843009695774</v>
+        <v>32.88843009695781</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.81915010464138</v>
+        <v>23.81915010464141</v>
       </c>
       <c r="I5">
-        <v>10.97920277289762</v>
+        <v>10.97920277289753</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.94471813225547</v>
+        <v>11.9447181322554</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.98046916068111</v>
+        <v>21.98046916068115</v>
       </c>
       <c r="C6">
-        <v>18.30332512227381</v>
+        <v>18.30332512227388</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.983423908943164</v>
+        <v>6.983423908943211</v>
       </c>
       <c r="F6">
-        <v>32.77709331770183</v>
+        <v>32.77709331770184</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.77175208093653</v>
+        <v>23.77175208093654</v>
       </c>
       <c r="I6">
-        <v>10.97094158382725</v>
+        <v>10.97094158382729</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.90314211042254</v>
+        <v>11.90314211042256</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55761417626991</v>
+        <v>22.55761417626994</v>
       </c>
       <c r="C7">
-        <v>18.79390337806556</v>
+        <v>18.79390337806554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.131336954126676</v>
+        <v>7.131336954126663</v>
       </c>
       <c r="F7">
-        <v>33.54571977395898</v>
+        <v>33.54571977395901</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.10180876150948</v>
+        <v>24.10180876150958</v>
       </c>
       <c r="I7">
-        <v>11.02942838438381</v>
+        <v>11.02942838438386</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98336891685478</v>
+        <v>24.98336891685486</v>
       </c>
       <c r="C8">
-        <v>20.86234839939657</v>
+        <v>20.86234839939666</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.752457521536464</v>
+        <v>7.752457521536524</v>
       </c>
       <c r="F8">
-        <v>36.83327558573251</v>
+        <v>36.83327558573258</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.58430103207552</v>
+        <v>25.58430103207557</v>
       </c>
       <c r="I8">
-        <v>11.31758106369701</v>
+        <v>11.31758106369699</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.39326403704896</v>
+        <v>13.39326403704902</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>29.3307585331832</v>
       </c>
       <c r="C9">
-        <v>24.59762706316958</v>
+        <v>24.59762706316955</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.858237739951418</v>
+        <v>8.858237739951424</v>
       </c>
       <c r="F9">
-        <v>43.25380423344999</v>
+        <v>43.25380423345002</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.58804433453515</v>
+        <v>28.58804433453514</v>
       </c>
       <c r="I9">
-        <v>12.00843432810597</v>
+        <v>12.00843432810598</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.55227700588123</v>
+        <v>15.55227700588121</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.30371944420916</v>
+        <v>32.30371944420929</v>
       </c>
       <c r="C10">
-        <v>27.17497443096683</v>
+        <v>27.17497443096672</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.604560251847669</v>
+        <v>9.604560251847721</v>
       </c>
       <c r="F10">
-        <v>47.71782358955197</v>
+        <v>47.71782358955196</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.86594268893442</v>
+        <v>30.86594268893429</v>
       </c>
       <c r="I10">
-        <v>12.6114460129947</v>
+        <v>12.61144601299465</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.02690391828126</v>
+        <v>17.02690391828127</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.61590601412453</v>
+        <v>33.61590601412463</v>
       </c>
       <c r="C11">
-        <v>28.31904552575288</v>
+        <v>28.31904552575301</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.930472657529126</v>
+        <v>9.930472657528991</v>
       </c>
       <c r="F11">
-        <v>49.70112173267076</v>
+        <v>49.70112173267086</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.92295202963397</v>
+        <v>31.92295202963409</v>
       </c>
       <c r="I11">
-        <v>12.91143231667455</v>
+        <v>12.91143231667461</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.6767226060886</v>
+        <v>17.67672260608853</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.10779367787618</v>
+        <v>34.10779367787607</v>
       </c>
       <c r="C12">
-        <v>28.74899454436125</v>
+        <v>28.74899454436135</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.05201024945594</v>
+        <v>10.05201024945589</v>
       </c>
       <c r="F12">
-        <v>50.44637836514239</v>
+        <v>50.44637836514246</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32.32687082933076</v>
+        <v>32.32687082933079</v>
       </c>
       <c r="I12">
-        <v>13.0292223007518</v>
+        <v>13.02922230075183</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.92010049289809</v>
+        <v>17.92010049289806</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.002065720218</v>
+        <v>34.00206572021802</v>
       </c>
       <c r="C13">
-        <v>28.65652915679829</v>
+        <v>28.65652915679843</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.02591712198746</v>
+        <v>10.0259171219874</v>
       </c>
       <c r="F13">
-        <v>50.28611181848187</v>
+        <v>50.28611181848199</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32.23970432424414</v>
+        <v>32.23970432424434</v>
       </c>
       <c r="I13">
-        <v>13.00365867026303</v>
+        <v>13.0036586702631</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.65646933345421</v>
+        <v>33.65646933345418</v>
       </c>
       <c r="C14">
-        <v>28.35447844474672</v>
+        <v>28.35447844474675</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.940508784031142</v>
+        <v>9.940508784031184</v>
       </c>
       <c r="F14">
         <v>49.76254340766989</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.95610489321267</v>
+        <v>31.95610489321265</v>
       </c>
       <c r="I14">
-        <v>12.92103574836584</v>
+        <v>12.92103574836582</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.69679736955347</v>
+        <v>17.69679736955352</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.44415473574186</v>
+        <v>33.4441547357417</v>
       </c>
       <c r="C15">
-        <v>28.16906192428824</v>
+        <v>28.16906192428802</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.887951607463922</v>
+        <v>9.887951607463929</v>
       </c>
       <c r="F15">
-        <v>49.44112531365272</v>
+        <v>49.44112531365241</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.78289109336722</v>
+        <v>31.78289109336704</v>
       </c>
       <c r="I15">
-        <v>12.87098919693246</v>
+        <v>12.87098919693242</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.591713915298</v>
+        <v>17.59171391529796</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.21721863908821</v>
+        <v>32.21721863908809</v>
       </c>
       <c r="C16">
-        <v>27.09970026990168</v>
+        <v>27.09970026990153</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.582993776193842</v>
+        <v>9.582993776193991</v>
       </c>
       <c r="F16">
-        <v>47.58734046544536</v>
+        <v>47.5873404654452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.7973347869102</v>
+        <v>30.79733478691006</v>
       </c>
       <c r="I16">
-        <v>12.59239842695595</v>
+        <v>12.59239842695589</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.98404066629158</v>
+        <v>16.98404066629163</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.45473922714925</v>
+        <v>31.45473922714923</v>
       </c>
       <c r="C17">
-        <v>26.43693397054028</v>
+        <v>26.43693397054026</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.39248029099741</v>
+        <v>9.39248029099736</v>
       </c>
       <c r="F17">
-        <v>46.43863454644399</v>
+        <v>46.43863454644391</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.19845817793379</v>
+        <v>30.19845817793372</v>
       </c>
       <c r="I17">
-        <v>12.42839485193425</v>
+        <v>12.42839485193424</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.60608813277901</v>
+        <v>16.60608813277893</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.01234103781857</v>
+        <v>31.01234103781856</v>
       </c>
       <c r="C18">
-        <v>26.0530020614162</v>
+        <v>26.05300206141638</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.281617098639911</v>
+        <v>9.281617098639837</v>
       </c>
       <c r="F18">
-        <v>45.77339270298669</v>
+        <v>45.77339270298671</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.85590510769873</v>
+        <v>29.85590510769883</v>
       </c>
       <c r="I18">
-        <v>12.33644617281402</v>
+        <v>12.33644617281409</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.86187162697227</v>
+        <v>30.86187162697226</v>
       </c>
       <c r="C19">
-        <v>25.92251920226334</v>
+        <v>25.92251920226338</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.243857952491965</v>
+        <v>9.243857952491901</v>
       </c>
       <c r="F19">
-        <v>45.54734588490967</v>
+        <v>45.54734588490968</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.74023284036425</v>
+        <v>29.74023284036432</v>
       </c>
       <c r="I19">
-        <v>12.30570926250851</v>
+        <v>12.30570926250852</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.31206792846344</v>
+        <v>16.31206792846339</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.53629872957959</v>
+        <v>31.53629872957948</v>
       </c>
       <c r="C20">
-        <v>26.50776344311755</v>
+        <v>26.50776344311746</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.412893248673832</v>
+        <v>9.412893248674036</v>
       </c>
       <c r="F20">
-        <v>46.5613789284623</v>
+        <v>46.56137892846223</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.26200832528599</v>
+        <v>30.26200832528603</v>
       </c>
       <c r="I20">
-        <v>12.44560347722262</v>
+        <v>12.44560347722268</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.64652653812054</v>
+        <v>16.64652653812061</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.75810840607055</v>
+        <v>33.75810840607063</v>
       </c>
       <c r="C21">
-        <v>28.44328014163838</v>
+        <v>28.4432801416384</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.965645580170824</v>
+        <v>9.965645580170763</v>
       </c>
       <c r="F21">
-        <v>49.91647544215908</v>
+        <v>49.91647544215921</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32.03929942116185</v>
+        <v>32.03929942116197</v>
       </c>
       <c r="I21">
-        <v>12.94518586991378</v>
+        <v>12.94518586991384</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.1814660230487</v>
+        <v>35.18146602304878</v>
       </c>
       <c r="C22">
         <v>29.68958736995344</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.31599897344826</v>
+        <v>10.31599897344823</v>
       </c>
       <c r="F22">
-        <v>52.07621997517394</v>
+        <v>52.07621997517392</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33.2289500995452</v>
+        <v>33.22895009954518</v>
       </c>
       <c r="I22">
-        <v>13.2964332995643</v>
+        <v>13.29643329956424</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.45087322535647</v>
+        <v>18.45087322535642</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.42412532389005</v>
+        <v>34.4241253238901</v>
       </c>
       <c r="C23">
-        <v>29.02581283484177</v>
+        <v>29.02581283484185</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.12997718176237</v>
+        <v>10.12997718176235</v>
       </c>
       <c r="F23">
-        <v>50.92613719871866</v>
+        <v>50.92613719871885</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.58879187071307</v>
+        <v>32.58879187071319</v>
       </c>
       <c r="I23">
-        <v>13.10650970660261</v>
+        <v>13.10650970660266</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.49943831458602</v>
+        <v>31.49943831458604</v>
       </c>
       <c r="C24">
-        <v>26.47575052544083</v>
+        <v>26.47575052544086</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.403668712613809</v>
+        <v>9.403668712613692</v>
       </c>
       <c r="F24">
-        <v>46.50590133055479</v>
+        <v>46.50590133055484</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.23327190288577</v>
+        <v>30.23327190288584</v>
       </c>
       <c r="I24">
-        <v>12.43781620816685</v>
+        <v>12.43781620816689</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.6282508912711</v>
+        <v>16.62825089127102</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.19580268003879</v>
+        <v>28.19580268003885</v>
       </c>
       <c r="C25">
-        <v>23.61878300599734</v>
+        <v>23.61878300599735</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.570912566053943</v>
+        <v>8.570912566053762</v>
       </c>
       <c r="F25">
-        <v>41.56206361243125</v>
+        <v>41.56206361243123</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.7642736228827</v>
+        <v>27.76427362288273</v>
       </c>
       <c r="I25">
-        <v>11.80626478146806</v>
+        <v>11.80626478146811</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.98875324958446</v>
+        <v>14.98875324958434</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.61198396006142</v>
+        <v>25.61198396006145</v>
       </c>
       <c r="C2">
-        <v>21.40014763436459</v>
+        <v>21.40014763436458</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.913093547681724</v>
+        <v>7.913093547681697</v>
       </c>
       <c r="F2">
-        <v>37.74127906680987</v>
+        <v>37.74127906680985</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.99229986363872</v>
+        <v>25.99229986363865</v>
       </c>
       <c r="I2">
-        <v>11.40353981618606</v>
+        <v>11.403539816186</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.75707931252095</v>
+        <v>23.75707931252106</v>
       </c>
       <c r="C3">
-        <v>19.81534963264083</v>
+        <v>19.81534963264077</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.438644115698049</v>
+        <v>7.438644115698096</v>
       </c>
       <c r="F3">
-        <v>35.16046698259409</v>
+        <v>35.16046698259411</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.81611417825027</v>
+        <v>24.81611417825026</v>
       </c>
       <c r="I3">
-        <v>11.16331118469049</v>
+        <v>11.16331118469046</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56430014827758</v>
+        <v>22.56430014827745</v>
       </c>
       <c r="C4">
-        <v>18.79958993979117</v>
+        <v>18.79958993979118</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.133050411883597</v>
+        <v>7.133050411883691</v>
       </c>
       <c r="F4">
         <v>33.55465698731781</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.10568516163429</v>
+        <v>24.1056851616344</v>
       </c>
       <c r="I4">
-        <v>11.03012841227119</v>
+        <v>11.03012841227132</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.19262954176206</v>
+        <v>12.19262954176214</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06433673088864</v>
+        <v>22.06433673088866</v>
       </c>
       <c r="C5">
-        <v>18.37457710800143</v>
+        <v>18.37457710800138</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.004917771545853</v>
+        <v>7.004917771545998</v>
       </c>
       <c r="F5">
-        <v>32.88843009695781</v>
+        <v>32.88843009695774</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.81915010464141</v>
+        <v>23.81915010464138</v>
       </c>
       <c r="I5">
-        <v>10.97920277289753</v>
+        <v>10.97920277289762</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.9447181322554</v>
+        <v>11.94471813225547</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.98046916068115</v>
+        <v>21.98046916068111</v>
       </c>
       <c r="C6">
-        <v>18.30332512227388</v>
+        <v>18.30332512227381</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.983423908943211</v>
+        <v>6.983423908943164</v>
       </c>
       <c r="F6">
-        <v>32.77709331770184</v>
+        <v>32.77709331770183</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.77175208093654</v>
+        <v>23.77175208093653</v>
       </c>
       <c r="I6">
-        <v>10.97094158382729</v>
+        <v>10.97094158382725</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.90314211042256</v>
+        <v>11.90314211042254</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55761417626994</v>
+        <v>22.55761417626991</v>
       </c>
       <c r="C7">
-        <v>18.79390337806554</v>
+        <v>18.79390337806556</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.131336954126663</v>
+        <v>7.131336954126676</v>
       </c>
       <c r="F7">
-        <v>33.54571977395901</v>
+        <v>33.54571977395898</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.10180876150958</v>
+        <v>24.10180876150948</v>
       </c>
       <c r="I7">
-        <v>11.02942838438386</v>
+        <v>11.02942838438381</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98336891685486</v>
+        <v>24.98336891685478</v>
       </c>
       <c r="C8">
-        <v>20.86234839939666</v>
+        <v>20.86234839939657</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.752457521536524</v>
+        <v>7.752457521536464</v>
       </c>
       <c r="F8">
-        <v>36.83327558573258</v>
+        <v>36.83327558573251</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.58430103207557</v>
+        <v>25.58430103207552</v>
       </c>
       <c r="I8">
-        <v>11.31758106369699</v>
+        <v>11.31758106369701</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.39326403704902</v>
+        <v>13.39326403704896</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>29.3307585331832</v>
       </c>
       <c r="C9">
-        <v>24.59762706316955</v>
+        <v>24.59762706316958</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.858237739951424</v>
+        <v>8.858237739951418</v>
       </c>
       <c r="F9">
-        <v>43.25380423345002</v>
+        <v>43.25380423344999</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.58804433453514</v>
+        <v>28.58804433453515</v>
       </c>
       <c r="I9">
-        <v>12.00843432810598</v>
+        <v>12.00843432810597</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.55227700588121</v>
+        <v>15.55227700588123</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.30371944420929</v>
+        <v>32.30371944420916</v>
       </c>
       <c r="C10">
-        <v>27.17497443096672</v>
+        <v>27.17497443096683</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.604560251847721</v>
+        <v>9.604560251847669</v>
       </c>
       <c r="F10">
-        <v>47.71782358955196</v>
+        <v>47.71782358955197</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.86594268893429</v>
+        <v>30.86594268893442</v>
       </c>
       <c r="I10">
-        <v>12.61144601299465</v>
+        <v>12.6114460129947</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.02690391828127</v>
+        <v>17.02690391828126</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.61590601412463</v>
+        <v>33.61590601412453</v>
       </c>
       <c r="C11">
-        <v>28.31904552575301</v>
+        <v>28.31904552575288</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.930472657528991</v>
+        <v>9.930472657529126</v>
       </c>
       <c r="F11">
-        <v>49.70112173267086</v>
+        <v>49.70112173267076</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.92295202963409</v>
+        <v>31.92295202963397</v>
       </c>
       <c r="I11">
-        <v>12.91143231667461</v>
+        <v>12.91143231667455</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.67672260608853</v>
+        <v>17.6767226060886</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.10779367787607</v>
+        <v>34.10779367787618</v>
       </c>
       <c r="C12">
-        <v>28.74899454436135</v>
+        <v>28.74899454436125</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.05201024945589</v>
+        <v>10.05201024945594</v>
       </c>
       <c r="F12">
-        <v>50.44637836514246</v>
+        <v>50.44637836514239</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32.32687082933079</v>
+        <v>32.32687082933076</v>
       </c>
       <c r="I12">
-        <v>13.02922230075183</v>
+        <v>13.0292223007518</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.92010049289806</v>
+        <v>17.92010049289809</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.00206572021802</v>
+        <v>34.002065720218</v>
       </c>
       <c r="C13">
-        <v>28.65652915679843</v>
+        <v>28.65652915679829</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.0259171219874</v>
+        <v>10.02591712198746</v>
       </c>
       <c r="F13">
-        <v>50.28611181848199</v>
+        <v>50.28611181848187</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32.23970432424434</v>
+        <v>32.23970432424414</v>
       </c>
       <c r="I13">
-        <v>13.0036586702631</v>
+        <v>13.00365867026303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.65646933345418</v>
+        <v>33.65646933345421</v>
       </c>
       <c r="C14">
-        <v>28.35447844474675</v>
+        <v>28.35447844474672</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.940508784031184</v>
+        <v>9.940508784031142</v>
       </c>
       <c r="F14">
         <v>49.76254340766989</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.95610489321265</v>
+        <v>31.95610489321267</v>
       </c>
       <c r="I14">
-        <v>12.92103574836582</v>
+        <v>12.92103574836584</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.69679736955352</v>
+        <v>17.69679736955347</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.4441547357417</v>
+        <v>33.44415473574186</v>
       </c>
       <c r="C15">
-        <v>28.16906192428802</v>
+        <v>28.16906192428824</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.887951607463929</v>
+        <v>9.887951607463922</v>
       </c>
       <c r="F15">
-        <v>49.44112531365241</v>
+        <v>49.44112531365272</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.78289109336704</v>
+        <v>31.78289109336722</v>
       </c>
       <c r="I15">
-        <v>12.87098919693242</v>
+        <v>12.87098919693246</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.59171391529796</v>
+        <v>17.591713915298</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.21721863908809</v>
+        <v>32.21721863908821</v>
       </c>
       <c r="C16">
-        <v>27.09970026990153</v>
+        <v>27.09970026990168</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.582993776193991</v>
+        <v>9.582993776193842</v>
       </c>
       <c r="F16">
-        <v>47.5873404654452</v>
+        <v>47.58734046544536</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.79733478691006</v>
+        <v>30.7973347869102</v>
       </c>
       <c r="I16">
-        <v>12.59239842695589</v>
+        <v>12.59239842695595</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.98404066629163</v>
+        <v>16.98404066629158</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.45473922714923</v>
+        <v>31.45473922714925</v>
       </c>
       <c r="C17">
-        <v>26.43693397054026</v>
+        <v>26.43693397054028</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.39248029099736</v>
+        <v>9.39248029099741</v>
       </c>
       <c r="F17">
-        <v>46.43863454644391</v>
+        <v>46.43863454644399</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.19845817793372</v>
+        <v>30.19845817793379</v>
       </c>
       <c r="I17">
-        <v>12.42839485193424</v>
+        <v>12.42839485193425</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.60608813277893</v>
+        <v>16.60608813277901</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.01234103781856</v>
+        <v>31.01234103781857</v>
       </c>
       <c r="C18">
-        <v>26.05300206141638</v>
+        <v>26.0530020614162</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.281617098639837</v>
+        <v>9.281617098639911</v>
       </c>
       <c r="F18">
-        <v>45.77339270298671</v>
+        <v>45.77339270298669</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.85590510769883</v>
+        <v>29.85590510769873</v>
       </c>
       <c r="I18">
-        <v>12.33644617281409</v>
+        <v>12.33644617281402</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.86187162697226</v>
+        <v>30.86187162697227</v>
       </c>
       <c r="C19">
-        <v>25.92251920226338</v>
+        <v>25.92251920226334</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.243857952491901</v>
+        <v>9.243857952491965</v>
       </c>
       <c r="F19">
-        <v>45.54734588490968</v>
+        <v>45.54734588490967</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.74023284036432</v>
+        <v>29.74023284036425</v>
       </c>
       <c r="I19">
-        <v>12.30570926250852</v>
+        <v>12.30570926250851</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.31206792846339</v>
+        <v>16.31206792846344</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.53629872957948</v>
+        <v>31.53629872957959</v>
       </c>
       <c r="C20">
-        <v>26.50776344311746</v>
+        <v>26.50776344311755</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.412893248674036</v>
+        <v>9.412893248673832</v>
       </c>
       <c r="F20">
-        <v>46.56137892846223</v>
+        <v>46.5613789284623</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.26200832528603</v>
+        <v>30.26200832528599</v>
       </c>
       <c r="I20">
-        <v>12.44560347722268</v>
+        <v>12.44560347722262</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.64652653812061</v>
+        <v>16.64652653812054</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.75810840607063</v>
+        <v>33.75810840607055</v>
       </c>
       <c r="C21">
-        <v>28.4432801416384</v>
+        <v>28.44328014163838</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.965645580170763</v>
+        <v>9.965645580170824</v>
       </c>
       <c r="F21">
-        <v>49.91647544215921</v>
+        <v>49.91647544215908</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32.03929942116197</v>
+        <v>32.03929942116185</v>
       </c>
       <c r="I21">
-        <v>12.94518586991384</v>
+        <v>12.94518586991378</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.18146602304878</v>
+        <v>35.1814660230487</v>
       </c>
       <c r="C22">
         <v>29.68958736995344</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.31599897344823</v>
+        <v>10.31599897344826</v>
       </c>
       <c r="F22">
-        <v>52.07621997517392</v>
+        <v>52.07621997517394</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33.22895009954518</v>
+        <v>33.2289500995452</v>
       </c>
       <c r="I22">
-        <v>13.29643329956424</v>
+        <v>13.2964332995643</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.45087322535642</v>
+        <v>18.45087322535647</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.4241253238901</v>
+        <v>34.42412532389005</v>
       </c>
       <c r="C23">
-        <v>29.02581283484185</v>
+        <v>29.02581283484177</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.12997718176235</v>
+        <v>10.12997718176237</v>
       </c>
       <c r="F23">
-        <v>50.92613719871885</v>
+        <v>50.92613719871866</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.58879187071319</v>
+        <v>32.58879187071307</v>
       </c>
       <c r="I23">
-        <v>13.10650970660266</v>
+        <v>13.10650970660261</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.49943831458604</v>
+        <v>31.49943831458602</v>
       </c>
       <c r="C24">
-        <v>26.47575052544086</v>
+        <v>26.47575052544083</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.403668712613692</v>
+        <v>9.403668712613809</v>
       </c>
       <c r="F24">
-        <v>46.50590133055484</v>
+        <v>46.50590133055479</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.23327190288584</v>
+        <v>30.23327190288577</v>
       </c>
       <c r="I24">
-        <v>12.43781620816689</v>
+        <v>12.43781620816685</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.62825089127102</v>
+        <v>16.6282508912711</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.19580268003885</v>
+        <v>28.19580268003879</v>
       </c>
       <c r="C25">
-        <v>23.61878300599735</v>
+        <v>23.61878300599734</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.570912566053762</v>
+        <v>8.570912566053943</v>
       </c>
       <c r="F25">
-        <v>41.56206361243123</v>
+        <v>41.56206361243125</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.76427362288273</v>
+        <v>27.7642736228827</v>
       </c>
       <c r="I25">
-        <v>11.80626478146811</v>
+        <v>11.80626478146806</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.98875324958434</v>
+        <v>14.98875324958446</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.61198396006145</v>
+        <v>25.46657899704548</v>
       </c>
       <c r="C2">
-        <v>21.40014763436458</v>
+        <v>21.22910011797511</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.913093547681697</v>
+        <v>8.017178189696839</v>
       </c>
       <c r="F2">
-        <v>37.74127906680985</v>
+        <v>37.68356824688525</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.039848603397147</v>
       </c>
       <c r="H2">
-        <v>25.99229986363865</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.403539816186</v>
+        <v>26.15638048867722</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.55790527010972</v>
       </c>
       <c r="K2">
-        <v>13.70544730073193</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.69306349804282</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.75707931252106</v>
+        <v>23.61912871531346</v>
       </c>
       <c r="C3">
-        <v>19.81534963264077</v>
+        <v>19.65337356369075</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.438644115698096</v>
+        <v>7.547293698511913</v>
       </c>
       <c r="F3">
-        <v>35.16046698259411</v>
+        <v>35.1545579856792</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.054149681128564</v>
       </c>
       <c r="H3">
-        <v>24.81611417825026</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.16331118469046</v>
+        <v>25.01136617612853</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.33447251026855</v>
       </c>
       <c r="K3">
-        <v>12.78444312961023</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.77420078819664</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56430014827745</v>
+        <v>22.43110761581186</v>
       </c>
       <c r="C4">
-        <v>18.79958993979118</v>
+        <v>18.6434571383684</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.133050411883691</v>
+        <v>7.244925845224699</v>
       </c>
       <c r="F4">
-        <v>33.55465698731781</v>
+        <v>33.5599511831173</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.063050915030166</v>
       </c>
       <c r="H4">
-        <v>24.1056851616344</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.03012841227132</v>
+        <v>24.32125643849506</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.21160563948949</v>
       </c>
       <c r="K4">
-        <v>12.19262954176214</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>12.18374981297363</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06433673088866</v>
+        <v>21.93313584253082</v>
       </c>
       <c r="C5">
-        <v>18.37457710800138</v>
+        <v>18.22090387672676</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.004917771545998</v>
+        <v>7.118220755828633</v>
       </c>
       <c r="F5">
-        <v>32.88843009695774</v>
+        <v>32.89855860284862</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.066714027892856</v>
       </c>
       <c r="H5">
-        <v>23.81915010464138</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>10.97920277289762</v>
+        <v>24.04328556584499</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.16487999831113</v>
       </c>
       <c r="K5">
-        <v>11.94471813225547</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.93640795875673</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.98046916068111</v>
+        <v>21.84960237508366</v>
       </c>
       <c r="C6">
-        <v>18.30332512227381</v>
+        <v>18.15006532517703</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.983423908943164</v>
+        <v>7.096970972395712</v>
       </c>
       <c r="F6">
-        <v>32.77709331770183</v>
+        <v>32.78804139991674</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.067324597320663</v>
       </c>
       <c r="H6">
-        <v>23.77175208093653</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10.97094158382725</v>
+        <v>23.99732628449809</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.15731585950312</v>
       </c>
       <c r="K6">
-        <v>11.90314211042254</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.89492743853834</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55761417626991</v>
+        <v>22.42444828101566</v>
       </c>
       <c r="C7">
-        <v>18.79390337806556</v>
+        <v>18.63780341684427</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.131336954126676</v>
+        <v>7.243231173011615</v>
       </c>
       <c r="F7">
-        <v>33.54571977395898</v>
+        <v>33.55107805103565</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.063100165253527</v>
       </c>
       <c r="H7">
-        <v>24.10180876150948</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.02942838438381</v>
+        <v>24.31749440936961</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.21096227546697</v>
       </c>
       <c r="K7">
-        <v>12.18931357388162</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>12.18044146555523</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98336891685478</v>
+        <v>24.84050099968897</v>
       </c>
       <c r="C8">
-        <v>20.86234839939657</v>
+        <v>20.69437772309145</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.752457521536464</v>
+        <v>7.858032094164584</v>
       </c>
       <c r="F8">
-        <v>36.83327558573251</v>
+        <v>36.81627401927901</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.044758168223383</v>
       </c>
       <c r="H8">
-        <v>25.58430103207552</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.31758106369701</v>
+        <v>25.75887871608724</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.47773420749345</v>
       </c>
       <c r="K8">
-        <v>13.39326403704896</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>13.38161010383268</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.3307585331832</v>
+        <v>29.1699629176007</v>
       </c>
       <c r="C9">
-        <v>24.59762706316958</v>
+        <v>24.40811339137341</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.858237739951418</v>
+        <v>8.954523040934042</v>
       </c>
       <c r="F9">
-        <v>43.25380423344999</v>
+        <v>43.16913258916317</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.009457972962187</v>
       </c>
       <c r="H9">
-        <v>28.58804433453515</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.00843432810597</v>
+        <v>28.69163780454648</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.12689243733944</v>
       </c>
       <c r="K9">
-        <v>15.55227700588123</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15.53543593938501</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.30371944420916</v>
+        <v>32.12988907587755</v>
       </c>
       <c r="C10">
-        <v>27.17497443096683</v>
+        <v>26.97004034207684</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.604560251847669</v>
+        <v>9.695619003377324</v>
       </c>
       <c r="F10">
-        <v>47.71782358955197</v>
+        <v>47.61198591275564</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.983461803653013</v>
       </c>
       <c r="H10">
-        <v>30.86594268893442</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.6114460129947</v>
+        <v>30.92318041922744</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.69964326111341</v>
       </c>
       <c r="K10">
-        <v>17.02690391828126</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17.00623690890385</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.61590601412453</v>
+        <v>33.43602664171878</v>
       </c>
       <c r="C11">
-        <v>28.31904552575288</v>
+        <v>28.10701081223066</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.930472657529126</v>
+        <v>10.01944884846459</v>
       </c>
       <c r="F11">
-        <v>49.70112173267076</v>
+        <v>49.58584209358246</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.971492526682228</v>
       </c>
       <c r="H11">
-        <v>31.92295202963397</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>12.91143231667455</v>
+        <v>31.96021818904129</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.98596071709721</v>
       </c>
       <c r="K11">
-        <v>17.6767226060886</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>17.65426105846638</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.10779367787618</v>
+        <v>33.92559036803433</v>
       </c>
       <c r="C12">
-        <v>28.74899454436125</v>
+        <v>28.5342402027595</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.05201024945594</v>
+        <v>10.14023642983559</v>
       </c>
       <c r="F12">
-        <v>50.44637836514239</v>
+        <v>50.32752418288469</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.96692605673965</v>
       </c>
       <c r="H12">
-        <v>32.32687082933076</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>13.0292223007518</v>
+        <v>32.35671396337253</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.09858603155792</v>
       </c>
       <c r="K12">
-        <v>17.92010049289809</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>17.89694606453869</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.002065720218</v>
+        <v>33.82036469545752</v>
       </c>
       <c r="C13">
-        <v>28.65652915679829</v>
+        <v>28.44236224698887</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.02591712198746</v>
+        <v>10.11430317193284</v>
       </c>
       <c r="F13">
-        <v>50.28611181848187</v>
+        <v>50.1680278992354</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.967911279135837</v>
       </c>
       <c r="H13">
-        <v>32.23970432424414</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>13.00365867026303</v>
+        <v>32.27114033647158</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.07413428388658</v>
       </c>
       <c r="K13">
-        <v>17.86779870396316</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>17.84479419674753</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.65646933345421</v>
+        <v>33.47639954416898</v>
       </c>
       <c r="C14">
-        <v>28.35447844474672</v>
+        <v>28.14222072423563</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.940508784031142</v>
+        <v>10.02942251844741</v>
       </c>
       <c r="F14">
-        <v>49.76254340766989</v>
+        <v>49.64696983492586</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.971117606925602</v>
       </c>
       <c r="H14">
-        <v>31.95610489321267</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>12.92103574836584</v>
+        <v>31.9927577008449</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.99513904915732</v>
       </c>
       <c r="K14">
-        <v>17.69679736955347</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>17.67427912229087</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.44415473574186</v>
+        <v>33.26507923834257</v>
       </c>
       <c r="C15">
-        <v>28.16906192428824</v>
+        <v>27.95796900652722</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.887951607463922</v>
+        <v>9.977193482484978</v>
       </c>
       <c r="F15">
-        <v>49.44112531365272</v>
+        <v>49.32708867547638</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.973076711809954</v>
       </c>
       <c r="H15">
-        <v>31.78289109336722</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>12.87098919693246</v>
+        <v>31.82275679548242</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.94731590130598</v>
       </c>
       <c r="K15">
-        <v>17.591713915298</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>17.56949159146546</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.21721863908821</v>
+        <v>32.04377989369337</v>
       </c>
       <c r="C16">
-        <v>27.09970026990168</v>
+        <v>26.89522701701444</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.582993776193842</v>
+        <v>9.674194233258484</v>
       </c>
       <c r="F16">
-        <v>47.58734046544536</v>
+        <v>47.48212147890688</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.984240054623139</v>
       </c>
       <c r="H16">
-        <v>30.7973347869102</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.59239842695595</v>
+        <v>30.85589856451239</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.68149079533082</v>
       </c>
       <c r="K16">
-        <v>16.98404066629158</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>16.96348940239494</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.45473922714925</v>
+        <v>31.28471756163039</v>
       </c>
       <c r="C17">
-        <v>26.43693397054028</v>
+        <v>26.23648785225865</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.39248029099741</v>
+        <v>9.484955045689752</v>
       </c>
       <c r="F17">
-        <v>46.43863454644399</v>
+        <v>46.33885552074927</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.991042942401736</v>
       </c>
       <c r="H17">
-        <v>30.19845817793379</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.42839485193425</v>
+        <v>30.26876604794172</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.52534282524178</v>
       </c>
       <c r="K17">
-        <v>16.60608813277901</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>16.58654462101472</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.01234103781857</v>
+        <v>30.84427470404941</v>
       </c>
       <c r="C18">
-        <v>26.0530020614162</v>
+        <v>25.85486547848157</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.281617098639911</v>
+        <v>9.374852773227556</v>
       </c>
       <c r="F18">
-        <v>45.77339270298669</v>
+        <v>45.67676190185506</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.994943208787788</v>
       </c>
       <c r="H18">
-        <v>29.85590510769873</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.33644617281402</v>
+        <v>29.9330745667089</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.43792196358791</v>
       </c>
       <c r="K18">
-        <v>16.38670093279169</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>16.3677323614342</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.86187162697227</v>
+        <v>30.69446603309008</v>
       </c>
       <c r="C19">
-        <v>25.92251920226334</v>
+        <v>25.72516392123623</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.243857952491965</v>
+        <v>9.337356186792563</v>
       </c>
       <c r="F19">
-        <v>45.54734588490967</v>
+        <v>45.45178505686376</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.996261978086519</v>
       </c>
       <c r="H19">
-        <v>29.74023284036425</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.30570926250851</v>
+        <v>29.81974434990473</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.4087197348509</v>
       </c>
       <c r="K19">
-        <v>16.31206792846344</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>16.29329336361946</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.53629872957959</v>
+        <v>31.36591445796994</v>
       </c>
       <c r="C20">
-        <v>26.50776344311755</v>
+        <v>26.30688944981595</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.412893248673832</v>
+        <v>9.505229484980502</v>
       </c>
       <c r="F20">
-        <v>46.5613789284623</v>
+        <v>46.46101898602006</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.990320153334912</v>
       </c>
       <c r="H20">
-        <v>30.26200832528599</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12.44560347722262</v>
+        <v>30.33105509968301</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.54171423190012</v>
       </c>
       <c r="K20">
-        <v>16.64652653812054</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>16.62687627085827</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.75810840607055</v>
+        <v>33.57756053670494</v>
       </c>
       <c r="C21">
-        <v>28.44328014163838</v>
+        <v>28.23046265051602</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.965645580170824</v>
+        <v>10.05440330236096</v>
       </c>
       <c r="F21">
-        <v>49.91647544215908</v>
+        <v>49.80016472389777</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.970176871890291</v>
       </c>
       <c r="H21">
-        <v>32.03929942116185</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>12.94518586991378</v>
+        <v>32.07441633970117</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.01822336251644</v>
       </c>
       <c r="K21">
-        <v>17.74709483500563</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>17.72443417456894</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.1814660230487</v>
+        <v>34.99407069268418</v>
       </c>
       <c r="C22">
-        <v>29.68958736995344</v>
+        <v>29.46877257185959</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.31599897344826</v>
+        <v>10.40264132867425</v>
       </c>
       <c r="F22">
-        <v>52.07621997517394</v>
+        <v>51.94947412818224</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.95680587242104</v>
       </c>
       <c r="H22">
-        <v>33.2289500995452</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13.2964332995643</v>
+        <v>33.23636639570518</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.3544530882468</v>
       </c>
       <c r="K22">
-        <v>18.45087322535647</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>18.42616368234419</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.42412532389005</v>
+        <v>34.24040986160162</v>
       </c>
       <c r="C23">
-        <v>29.02581283484177</v>
+        <v>28.80929123085419</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.12997718176237</v>
+        <v>10.21772931929079</v>
       </c>
       <c r="F23">
-        <v>50.92613719871866</v>
+        <v>50.80497158424826</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.963966222950192</v>
       </c>
       <c r="H23">
-        <v>32.58879187071307</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>13.10650970660261</v>
+        <v>32.61387742314322</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.17254108982827</v>
       </c>
       <c r="K23">
-        <v>18.07654813732685</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>18.05294181055611</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.49943831458602</v>
+        <v>31.32921800466485</v>
       </c>
       <c r="C24">
-        <v>26.47575052544083</v>
+        <v>26.27506999091824</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.403668712613809</v>
+        <v>9.496067484615162</v>
       </c>
       <c r="F24">
-        <v>46.50590133055479</v>
+        <v>46.4058039541506</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.990646958953855</v>
       </c>
       <c r="H24">
-        <v>30.23327190288577</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.43781620816685</v>
+        <v>30.30288847528945</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.53430543336205</v>
       </c>
       <c r="K24">
-        <v>16.6282508912711</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>16.6086489015686</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.19580268003879</v>
+        <v>28.03978982132746</v>
       </c>
       <c r="C25">
-        <v>23.61878300599734</v>
+        <v>23.43497440337219</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.570912566053943</v>
+        <v>8.669411181399335</v>
       </c>
       <c r="F25">
-        <v>41.56206361243125</v>
+        <v>41.48550505949909</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.018980025678268</v>
       </c>
       <c r="H25">
-        <v>27.7642736228827</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.80626478146806</v>
+        <v>27.88602493891533</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.93595000784492</v>
       </c>
       <c r="K25">
-        <v>14.98875324958446</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>14.97330345067265</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46657899704548</v>
+        <v>26.97254656826695</v>
       </c>
       <c r="C2">
-        <v>21.22910011797511</v>
+        <v>13.81864123906542</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.017178189696839</v>
+        <v>5.257966925796753</v>
       </c>
       <c r="F2">
-        <v>37.68356824688525</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.039848603397147</v>
+        <v>2.107206336396382</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.15638048867722</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.55790527010972</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.56735906303043</v>
       </c>
       <c r="L2">
-        <v>13.69306349804282</v>
+        <v>7.680610883442888</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>16.18434401724359</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.61912871531346</v>
+        <v>25.33850738649169</v>
       </c>
       <c r="C3">
-        <v>19.65337356369075</v>
+        <v>12.79389391793315</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.547293698511913</v>
+        <v>5.260909924589633</v>
       </c>
       <c r="F3">
-        <v>35.1545579856792</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.054149681128564</v>
+        <v>2.121073511627259</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.01136617612853</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.33447251026855</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.26768890553744</v>
       </c>
       <c r="L3">
-        <v>12.77420078819664</v>
+        <v>7.435338077124679</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>16.27017766716349</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.43110761581186</v>
+        <v>24.3117867110059</v>
       </c>
       <c r="C4">
-        <v>18.6434571383684</v>
+        <v>12.13677970630362</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.244925845224699</v>
+        <v>5.264820518247524</v>
       </c>
       <c r="F4">
-        <v>33.5599511831173</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.063050915030166</v>
+        <v>2.129725607766092</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.32125643849506</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11.21160563948949</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.45197845079291</v>
       </c>
       <c r="L4">
-        <v>12.18374981297363</v>
+        <v>7.287862497177825</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>16.32941381230575</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.93313584253082</v>
+        <v>23.88770285879628</v>
       </c>
       <c r="C5">
-        <v>18.22090387672676</v>
+        <v>11.86177588079166</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.118220755828633</v>
+        <v>5.266926326537024</v>
       </c>
       <c r="F5">
-        <v>32.89855860284862</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.066714027892856</v>
+        <v>2.133290823912647</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.04328556584499</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.16487999831113</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.11527846508323</v>
       </c>
       <c r="L5">
-        <v>11.93640795875673</v>
+        <v>7.228571353118848</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>16.35509436229059</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.84960237508366</v>
+        <v>23.81694871960199</v>
       </c>
       <c r="C6">
-        <v>18.15006532517703</v>
+        <v>11.81566972757056</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.096970972395712</v>
+        <v>5.267306466023703</v>
       </c>
       <c r="F6">
-        <v>32.78804139991674</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.067324597320663</v>
+        <v>2.133885337967744</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.99732628449809</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.15731585950312</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.05911703972936</v>
       </c>
       <c r="L6">
-        <v>11.89492743853834</v>
+        <v>7.218775548388405</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>16.35944892372449</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.42444828101566</v>
+        <v>24.30609004334094</v>
       </c>
       <c r="C7">
-        <v>18.63780341684427</v>
+        <v>12.133100417643</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.243231173011615</v>
+        <v>5.264846865153313</v>
       </c>
       <c r="F7">
-        <v>33.55107805103565</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.063100165253527</v>
+        <v>2.129773523893861</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.31749440936961</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.21096227546697</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.44745469088742</v>
       </c>
       <c r="L7">
-        <v>12.18044146555523</v>
+        <v>7.287059578377421</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>16.32975403480743</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.84050099968897</v>
+        <v>26.41407374666368</v>
       </c>
       <c r="C8">
-        <v>20.69437772309145</v>
+        <v>13.47097260048949</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.858032094164584</v>
+        <v>5.258534547459975</v>
       </c>
       <c r="F8">
-        <v>36.81627401927901</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.044758168223383</v>
+        <v>2.111962237047439</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.75887871608724</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.47773420749345</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.12297570208373</v>
       </c>
       <c r="L8">
-        <v>13.38161010383268</v>
+        <v>7.595402841667866</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>16.21251861773631</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.1699629176007</v>
+        <v>30.35940693736964</v>
       </c>
       <c r="C9">
-        <v>24.40811339137341</v>
+        <v>15.88343457277691</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.954523040934042</v>
+        <v>5.26368538458393</v>
       </c>
       <c r="F9">
-        <v>43.16913258916317</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.009457972962187</v>
+        <v>2.077879454285806</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.69163780454648</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.12689243733944</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>24.44605830956661</v>
       </c>
       <c r="L9">
-        <v>15.53543593938501</v>
+        <v>8.224441741385851</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>16.03969293133796</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.12988907587755</v>
+        <v>33.2754455124247</v>
       </c>
       <c r="C10">
-        <v>26.97004034207684</v>
+        <v>17.54378170433279</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.695619003377324</v>
+        <v>5.279478612688382</v>
       </c>
       <c r="F10">
-        <v>47.61198591275564</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>1.983461803653013</v>
+        <v>2.052955655097327</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.92318041922744</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>12.69964326111341</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.96382142884768</v>
       </c>
       <c r="L10">
-        <v>17.00623690890385</v>
+        <v>8.702000444391942</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>15.95596727002799</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.43602664171878</v>
+        <v>34.6161036574096</v>
       </c>
       <c r="C11">
-        <v>28.10701081223066</v>
+        <v>18.27922245979517</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.01944884846459</v>
+        <v>5.289620349812232</v>
       </c>
       <c r="F11">
-        <v>49.58584209358246</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.971492526682228</v>
+        <v>2.041534496680333</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.96021818904129</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>12.98596071709721</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>28.07881643766389</v>
       </c>
       <c r="L11">
-        <v>17.65426105846638</v>
+        <v>8.923102779432806</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>15.92956397338465</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.92559036803433</v>
+        <v>35.11978212597502</v>
       </c>
       <c r="C12">
-        <v>28.5342402027595</v>
+        <v>18.55530447499684</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.14023642983559</v>
+        <v>5.293920789566566</v>
       </c>
       <c r="F12">
-        <v>50.32752418288469</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.96692605673965</v>
+        <v>2.037186701774762</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.35671396337253</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.09858603155792</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28.49725636620469</v>
       </c>
       <c r="L12">
-        <v>17.89694606453869</v>
+        <v>9.007457637886461</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>15.92147790418075</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.82036469545752</v>
+        <v>35.01147236410417</v>
       </c>
       <c r="C13">
-        <v>28.44236224698887</v>
+        <v>18.49594473439082</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.11430317193284</v>
+        <v>5.292973539541978</v>
       </c>
       <c r="F13">
-        <v>50.1680278992354</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.967911279135837</v>
+        <v>2.038124287987643</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.27114033647158</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.07413428388658</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>28.40729571869593</v>
       </c>
       <c r="L13">
-        <v>17.84479419674753</v>
+        <v>8.989260867068708</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>15.9231302114543</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.47639954416898</v>
+        <v>34.65761766361338</v>
       </c>
       <c r="C14">
-        <v>28.14222072423563</v>
+        <v>18.30198145329054</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.02942251844741</v>
+        <v>5.289964711264828</v>
       </c>
       <c r="F14">
-        <v>49.64696983492586</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.971117606925602</v>
+        <v>2.041177328277163</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.9927577008449</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>12.99513904915732</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>28.11331386956015</v>
       </c>
       <c r="L14">
-        <v>17.67427912229087</v>
+        <v>8.930029583208835</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>15.92885893176802</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.26507923834257</v>
+        <v>34.44037150709502</v>
       </c>
       <c r="C15">
-        <v>27.95796900652722</v>
+        <v>18.18287347633578</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.977193482484978</v>
+        <v>5.288182749106406</v>
       </c>
       <c r="F15">
-        <v>49.32708867547638</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>1.973076711809954</v>
+        <v>2.043044071566501</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.82275679548242</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>12.94731590130598</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>27.93276774755685</v>
       </c>
       <c r="L15">
-        <v>17.56949159146546</v>
+        <v>8.893833226441359</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>15.93262453454724</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.04377989369337</v>
+        <v>33.18723355079968</v>
       </c>
       <c r="C16">
-        <v>26.89522701701444</v>
+        <v>17.49535542257227</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.674194233258484</v>
+        <v>5.278878177127446</v>
       </c>
       <c r="F16">
-        <v>47.48212147890688</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.984240054623139</v>
+        <v>2.053699492800172</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.85589856451239</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>12.68149079533082</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.89039027666542</v>
       </c>
       <c r="L16">
-        <v>16.96348940239494</v>
+        <v>8.687634115679039</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>15.95794687434962</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.28471756163039</v>
+        <v>32.41064078933959</v>
       </c>
       <c r="C17">
-        <v>26.23648785225865</v>
+        <v>17.06879083055347</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.484955045689752</v>
+        <v>5.273950565625566</v>
       </c>
       <c r="F17">
-        <v>46.33885552074927</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>1.991042942401736</v>
+        <v>2.060207772987957</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.26876604794172</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.52534282524178</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.24353153091754</v>
       </c>
       <c r="L17">
-        <v>16.58654462101472</v>
+        <v>8.56216880489554</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>15.97662726254025</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.84427470404941</v>
+        <v>31.96089483298489</v>
       </c>
       <c r="C18">
-        <v>25.85486547848157</v>
+        <v>16.82154246550789</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.374852773227556</v>
+        <v>5.271392317140612</v>
       </c>
       <c r="F18">
-        <v>45.67676190185506</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>1.994943208787788</v>
+        <v>2.063944084936982</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.9330745667089</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.43792196358791</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>25.86857838011634</v>
       </c>
       <c r="L18">
-        <v>16.3677323614342</v>
+        <v>8.490361612879736</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>15.98845550823078</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.69446603309008</v>
+        <v>31.80807457961224</v>
       </c>
       <c r="C19">
-        <v>25.72516392123623</v>
+        <v>16.73748985115089</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.337356186792563</v>
+        <v>5.270572569293716</v>
       </c>
       <c r="F19">
-        <v>45.45178505686376</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>1.996261978086519</v>
+        <v>2.065208221754672</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.81974434990473</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12.4087197348509</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>25.74111218326608</v>
       </c>
       <c r="L19">
-        <v>16.29329336361946</v>
+        <v>8.466108517573348</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>15.99264002752389</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.36591445796994</v>
+        <v>32.49362412931524</v>
       </c>
       <c r="C20">
-        <v>26.30688944981595</v>
+        <v>17.11439300270149</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.505229484980502</v>
+        <v>5.274446321224628</v>
       </c>
       <c r="F20">
-        <v>46.46101898602006</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>1.990320153334912</v>
+        <v>2.059515760921899</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.33105509968301</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>12.54171423190012</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.31268673514815</v>
       </c>
       <c r="L20">
-        <v>16.62687627085827</v>
+        <v>8.575487403593264</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>15.97452497611941</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.57756053670494</v>
+        <v>34.76165623278797</v>
       </c>
       <c r="C21">
-        <v>28.23046265051602</v>
+        <v>18.35901476158212</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.05440330236096</v>
+        <v>5.29083568769844</v>
       </c>
       <c r="F21">
-        <v>49.80016472389777</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.970176871890291</v>
+        <v>2.040281292995362</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.07441633970117</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13.01822336251644</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>28.19976099817201</v>
       </c>
       <c r="L21">
-        <v>17.72443417456894</v>
+        <v>8.947409458559791</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>15.92712232203112</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.99407069268418</v>
+        <v>36.22103208489413</v>
       </c>
       <c r="C22">
-        <v>29.46877257185959</v>
+        <v>19.15864432848849</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.40264132867425</v>
+        <v>5.304248798328723</v>
       </c>
       <c r="F22">
-        <v>51.94947412818224</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>1.95680587242104</v>
+        <v>2.027570709367094</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.23636639570518</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13.3544530882468</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>29.4113687028677</v>
       </c>
       <c r="L22">
-        <v>18.42616368234419</v>
+        <v>9.194201336048554</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>15.90742610112834</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.24040986160162</v>
+        <v>35.44398740760958</v>
       </c>
       <c r="C23">
-        <v>28.80929123085419</v>
+        <v>18.73296267866088</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.21772931929079</v>
+        <v>5.296829704986648</v>
       </c>
       <c r="F23">
-        <v>50.80497158424826</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.963966222950192</v>
+        <v>2.034371506509466</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.61387742314322</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>13.17254108982827</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.76647486057536</v>
       </c>
       <c r="L23">
-        <v>18.05294181055611</v>
+        <v>9.062110882160539</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>15.91681839467874</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.32921800466485</v>
+        <v>32.4561175991093</v>
       </c>
       <c r="C24">
-        <v>26.27506999091824</v>
+        <v>17.09378255572004</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.496067484615162</v>
+        <v>5.274221337001316</v>
       </c>
       <c r="F24">
-        <v>46.4058039541506</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>1.990646958953855</v>
+        <v>2.059828635558686</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.30288847528945</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.53430543336205</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.2814312575838</v>
       </c>
       <c r="L24">
-        <v>16.6086489015686</v>
+        <v>8.569465059494235</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>15.97547204607433</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.03978982132746</v>
+        <v>29.31214929013121</v>
       </c>
       <c r="C25">
-        <v>23.43497440337219</v>
+        <v>15.25182031974812</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.669411181399335</v>
+        <v>5.260288745161865</v>
       </c>
       <c r="F25">
-        <v>41.48550505949909</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.018980025678268</v>
+        <v>2.087046951672835</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.88602493891533</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>11.93595000784492</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.48866261756855</v>
       </c>
       <c r="L25">
-        <v>14.97330345067265</v>
+        <v>8.051663300304371</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>16.07953883915459</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.97254656826695</v>
+        <v>24.36327434218659</v>
       </c>
       <c r="C2">
-        <v>13.81864123906542</v>
+        <v>13.34272138286622</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.257966925796753</v>
+        <v>6.666229736484196</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.107206336396382</v>
+        <v>35.16312204858367</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.10765444253848</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.56735906303043</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.680610883442888</v>
+        <v>7.351030704485321</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.18434401724359</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.33850738649169</v>
+        <v>22.66057626118388</v>
       </c>
       <c r="C3">
-        <v>12.79389391793315</v>
+        <v>12.64652410674538</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.260909924589633</v>
+        <v>6.716016010901884</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.121073511627259</v>
+        <v>33.93350791144981</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.0626518711206</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.26768890553744</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.435338077124679</v>
+        <v>7.087663224036446</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.27017766716349</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.3117867110059</v>
+        <v>21.55883219327838</v>
       </c>
       <c r="C4">
-        <v>12.13677970630362</v>
+        <v>12.20084601165899</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.264820518247524</v>
+        <v>6.750738674399423</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.129725607766092</v>
+        <v>33.23332883715545</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.05152411173943</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.45197845079291</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.287862497177825</v>
+        <v>6.926134972681766</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.32941381230575</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.88770285879628</v>
+        <v>21.0955535605876</v>
       </c>
       <c r="C5">
-        <v>11.86177588079166</v>
+        <v>12.01471387382746</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.266926326537024</v>
+        <v>6.765894117669529</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.133290823912647</v>
+        <v>32.96169859056348</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.05089672170963</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.11527846508323</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.228571353118848</v>
+        <v>6.860426861910509</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.35509436229059</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.81694871960199</v>
+        <v>21.01775792347101</v>
       </c>
       <c r="C6">
-        <v>11.81566972757056</v>
+        <v>11.98353648427928</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.267306466023703</v>
+        <v>6.768470322504215</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.133885337967744</v>
+        <v>32.91741825968116</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.05102144911241</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.05911703972936</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.218775548388405</v>
+        <v>6.849525303896787</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.35944892372449</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.30609004334094</v>
+        <v>21.55264239087763</v>
       </c>
       <c r="C7">
-        <v>12.133100417643</v>
+        <v>12.19835394456164</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.264846865153313</v>
+        <v>6.750939043436848</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.129773523893861</v>
+        <v>33.22961022815072</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.05150015048305</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.44745469088742</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.287059578377421</v>
+        <v>6.925248241322487</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.32975403480743</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.41407374666368</v>
+        <v>23.78776670183411</v>
       </c>
       <c r="C8">
-        <v>13.47097260048949</v>
+        <v>13.10648283741684</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.258534547459975</v>
+        <v>6.682509774077467</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.111962237047439</v>
+        <v>34.72774162166845</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.08856602193175</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.12297570208373</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.595402841667866</v>
+        <v>7.260223792849464</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.21251861773631</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.35940693736964</v>
+        <v>27.73203321018858</v>
       </c>
       <c r="C9">
-        <v>15.88343457277691</v>
+        <v>14.74130150574561</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.26368538458393</v>
+        <v>6.58316516525238</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.077879454285806</v>
+        <v>38.10228148044042</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.30303565014458</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.44605830956661</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.224441741385851</v>
+        <v>7.915939480886008</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.03969293133796</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.2754455124247</v>
+        <v>30.37421926596479</v>
       </c>
       <c r="C10">
-        <v>17.54378170433279</v>
+        <v>15.85305090175106</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.279478612688382</v>
+        <v>6.534266183244348</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.052955655097327</v>
+        <v>40.85033249867387</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.56176881594054</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26.96382142884768</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.702000444391942</v>
+        <v>8.394325022260222</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.95596727002799</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.6161036574096</v>
+        <v>31.52363161607429</v>
       </c>
       <c r="C11">
-        <v>18.27922245979517</v>
+        <v>16.33979053259057</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.289620349812232</v>
+        <v>6.517951299181397</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.041534496680333</v>
+        <v>42.16008677995749</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.70457226598766</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.07881643766389</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.923102779432806</v>
+        <v>8.610919064595137</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.92956397338465</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.11978212597502</v>
+        <v>31.95160008153935</v>
       </c>
       <c r="C12">
-        <v>18.55530447499684</v>
+        <v>16.52143139201153</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.293920789566566</v>
+        <v>6.512690669155695</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.037186701774762</v>
+        <v>42.66483155455973</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.76251570775562</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.49725636620469</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>9.007457637886461</v>
+        <v>8.692782688927892</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.92147790418075</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.01147236410417</v>
+        <v>31.85974908061677</v>
       </c>
       <c r="C13">
-        <v>18.49594473439082</v>
+        <v>16.48242973202785</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.292973539541978</v>
+        <v>6.513781739630434</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.038124287987643</v>
+        <v>42.5557314906625</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.74986044858614</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.40729571869593</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.989260867068708</v>
+        <v>8.675158796388049</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.9231302114543</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.65761766361338</v>
+        <v>31.55898530638287</v>
       </c>
       <c r="C14">
-        <v>18.30198145329054</v>
+        <v>16.35478749217871</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.289964711264828</v>
+        <v>6.517499724201775</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.041177328277163</v>
+        <v>42.20143520044848</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.70926032846044</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>28.11331386956015</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.930029583208835</v>
+        <v>8.617657151945265</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.92885893176802</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.44037150709502</v>
+        <v>31.37381789445891</v>
       </c>
       <c r="C15">
-        <v>18.18287347633578</v>
+        <v>16.27625632751027</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.288182749106406</v>
+        <v>6.519898602623964</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.043044071566501</v>
+        <v>41.98556804169689</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.68490283327036</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>27.93276774755685</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.893833226441359</v>
+        <v>8.582415447163585</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.93262453454724</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.18723355079968</v>
+        <v>30.29806742932831</v>
       </c>
       <c r="C16">
-        <v>17.49535542257227</v>
+        <v>15.82086324103672</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.278878177127446</v>
+        <v>6.535457122794408</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.053699492800172</v>
+        <v>40.76595129961648</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.55296334858834</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.89039027666542</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.687634115679039</v>
+        <v>8.380148400910617</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.95794687434962</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.41064078933959</v>
+        <v>29.62485491803428</v>
       </c>
       <c r="C17">
-        <v>17.06879083055347</v>
+        <v>15.53666065028887</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.273950565625566</v>
+        <v>6.546564748126646</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.060207772987957</v>
+        <v>40.03313834570538</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.47863477404906</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26.24353153091754</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.56216880489554</v>
+        <v>8.255790804471671</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.97662726254025</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.96089483298489</v>
+        <v>29.232679017969</v>
       </c>
       <c r="C18">
-        <v>16.82154246550789</v>
+        <v>15.37140179324062</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.271392317140612</v>
+        <v>6.553507459335937</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.063944084936982</v>
+        <v>39.61724157574321</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.43823050175576</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.86857838011634</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.490361612879736</v>
+        <v>8.184166643000216</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.98845550823078</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.80807457961224</v>
+        <v>29.09903515530943</v>
       </c>
       <c r="C19">
-        <v>16.73748985115089</v>
+        <v>15.31513867697203</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.270572569293716</v>
+        <v>6.555951394624753</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.065208221754672</v>
+        <v>39.47738336142908</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.42494570954062</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.74111218326608</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.466108517573348</v>
+        <v>8.159899772496006</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.99264002752389</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.49362412931524</v>
+        <v>29.6970312408798</v>
       </c>
       <c r="C20">
-        <v>17.11439300270149</v>
+        <v>15.56709973895685</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.274446321224628</v>
+        <v>6.545324545205687</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.059515760921899</v>
+        <v>40.11056712877244</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.48630236079906</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.31268673514815</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.575487403593264</v>
+        <v>8.269039025131995</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.97452497611941</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.76165623278797</v>
+        <v>31.64752249094986</v>
       </c>
       <c r="C21">
-        <v>18.35901476158212</v>
+        <v>16.3923512163461</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.29083568769844</v>
+        <v>6.516382216216578</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.040281292995362</v>
+        <v>42.30526054400291</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.72107856083805</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>28.19976099817201</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.947409458559791</v>
+        <v>8.634551000326429</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.92712232203112</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.22103208489413</v>
+        <v>32.87993886272383</v>
       </c>
       <c r="C22">
-        <v>19.15864432848849</v>
+        <v>16.91613863642986</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.304248798328723</v>
+        <v>6.502848887356443</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.027570709367094</v>
+        <v>43.79090671854849</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.89717946120039</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>29.4113687028677</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.194201336048554</v>
+        <v>8.87253283280052</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.90742610112834</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.44398740760958</v>
+        <v>32.22595440682962</v>
       </c>
       <c r="C23">
-        <v>18.73296267866088</v>
+        <v>16.637983588058</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.296829704986648</v>
+        <v>6.509556411771776</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.034371506509466</v>
+        <v>42.99320346652525</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.80103181866142</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>28.76647486057536</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>9.062110882160539</v>
+        <v>8.745598745249977</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.91681839467874</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.4561175991093</v>
+        <v>29.66441634577923</v>
       </c>
       <c r="C24">
-        <v>17.09378255572004</v>
+        <v>15.55334404618305</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.274221337001316</v>
+        <v>6.545883511498173</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.059828635558686</v>
+        <v>40.07554474670105</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.48282861236323</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.2814312575838</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.569465059494235</v>
+        <v>8.263049906555354</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.97547204607433</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.31214929013121</v>
+        <v>26.71082285286946</v>
       </c>
       <c r="C25">
-        <v>15.25182031974812</v>
+        <v>14.31478909158636</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.260288745161865</v>
+        <v>6.606030964743159</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.087046951672835</v>
+        <v>37.14240556845535</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.22831145473215</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.48866261756855</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.051663300304371</v>
+        <v>7.738994948830482</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.07953883915459</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.36327434218659</v>
+        <v>18.71113896771032</v>
       </c>
       <c r="C2">
-        <v>13.34272138286622</v>
+        <v>9.711612252535442</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.666229736484196</v>
+        <v>11.20705533867923</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>35.16312204858367</v>
+        <v>38.44006884876254</v>
       </c>
       <c r="H2">
-        <v>11.10765444253848</v>
+        <v>16.47425620400155</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.351030704485321</v>
+        <v>9.937090530883424</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.66057626118388</v>
+        <v>18.17061707178904</v>
       </c>
       <c r="C3">
-        <v>12.64652410674538</v>
+        <v>9.396928590263286</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.716016010901884</v>
+        <v>11.24473097846779</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>33.93350791144981</v>
+        <v>38.42605159419219</v>
       </c>
       <c r="H3">
-        <v>11.0626518711206</v>
+        <v>16.54236111961629</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.087663224036446</v>
+        <v>9.914095803461628</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.55883219327838</v>
+        <v>17.83442004836189</v>
       </c>
       <c r="C4">
-        <v>12.20084601165899</v>
+        <v>9.196653604177982</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.750738674399423</v>
+        <v>11.26957486677224</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>33.23332883715545</v>
+        <v>38.43721151655754</v>
       </c>
       <c r="H4">
-        <v>11.05152411173943</v>
+        <v>16.58892091059538</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.926134972681766</v>
+        <v>9.901887477985008</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0955535605876</v>
+        <v>17.69655126238573</v>
       </c>
       <c r="C5">
-        <v>12.01471387382746</v>
+        <v>9.113341173616302</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.765894117669529</v>
+        <v>11.28012917057682</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>32.96169859056348</v>
+        <v>38.44669488880991</v>
       </c>
       <c r="H5">
-        <v>11.05089672170963</v>
+        <v>16.60908014058028</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.860426861910509</v>
+        <v>9.897395957941125</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01775792347101</v>
+        <v>17.67361262419753</v>
       </c>
       <c r="C6">
-        <v>11.98353648427928</v>
+        <v>9.099406981567117</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.768470322504215</v>
+        <v>11.28190768892811</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>32.91741825968116</v>
+        <v>38.44856654438062</v>
       </c>
       <c r="H6">
-        <v>11.05102144911241</v>
+        <v>16.61249897573836</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.849525303896787</v>
+        <v>9.896679426066289</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55264239087763</v>
+        <v>17.83256390805282</v>
       </c>
       <c r="C7">
-        <v>12.19835394456164</v>
+        <v>9.195536795587095</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.750939043436848</v>
+        <v>11.2697154638653</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>33.22961022815072</v>
+        <v>38.43731947976798</v>
       </c>
       <c r="H7">
-        <v>11.05150015048305</v>
+        <v>16.58918799337007</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.925248241322487</v>
+        <v>9.901824942493375</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78776670183411</v>
+        <v>18.52578979285231</v>
       </c>
       <c r="C8">
-        <v>13.10648283741684</v>
+        <v>9.604617440648138</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.682509774077467</v>
+        <v>11.21969080287876</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>34.72774162166845</v>
+        <v>38.43111426944837</v>
       </c>
       <c r="H8">
-        <v>11.08856602193175</v>
+        <v>16.49675019808315</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.260223792849464</v>
+        <v>9.92876737056041</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.73203321018858</v>
+        <v>19.84204279218102</v>
       </c>
       <c r="C9">
-        <v>14.74130150574561</v>
+        <v>10.34786725434179</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.58316516525238</v>
+        <v>11.13516778260468</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>38.10228148044042</v>
+        <v>38.57700029823251</v>
       </c>
       <c r="H9">
-        <v>11.30303565014458</v>
+        <v>16.35342084168226</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.915939480886008</v>
+        <v>9.996609423952947</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.37421926596479</v>
+        <v>20.77186227699329</v>
       </c>
       <c r="C10">
-        <v>15.85305090175106</v>
+        <v>10.85454388358351</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.534266183244348</v>
+        <v>11.08134456805858</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>40.85033249867387</v>
+        <v>38.78168925773615</v>
       </c>
       <c r="H10">
-        <v>11.56176881594054</v>
+        <v>16.27165902980875</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.394325022260222</v>
+        <v>10.05537546942686</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.52363161607429</v>
+        <v>21.18477064987499</v>
       </c>
       <c r="C11">
-        <v>16.33979053259057</v>
+        <v>11.07589536486481</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.517951299181397</v>
+        <v>11.0586562506748</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>42.16008677995749</v>
+        <v>38.89606688083302</v>
       </c>
       <c r="H11">
-        <v>11.70457226598766</v>
+        <v>16.23966119317112</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.610919064595137</v>
+        <v>10.08399061129173</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.95160008153935</v>
+        <v>21.33953324844894</v>
       </c>
       <c r="C12">
-        <v>16.52143139201153</v>
+        <v>11.15835941308749</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.512690669155695</v>
+        <v>11.05032313608173</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>42.66483155455973</v>
+        <v>38.9424314140771</v>
       </c>
       <c r="H12">
-        <v>11.76251570775562</v>
+        <v>16.22829845391358</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.692782688927892</v>
+        <v>10.09509166201046</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.85974908061677</v>
+        <v>21.3062755853303</v>
       </c>
       <c r="C13">
-        <v>16.48242973202785</v>
+        <v>11.14066028138101</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.513781739630434</v>
+        <v>11.0521063234654</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>42.5557314906625</v>
+        <v>38.93231040392367</v>
       </c>
       <c r="H13">
-        <v>11.74986044858614</v>
+        <v>16.23071197318855</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.675158796388049</v>
+        <v>10.09268915292678</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.55898530638287</v>
+        <v>21.1975358645325</v>
       </c>
       <c r="C14">
-        <v>16.35478749217871</v>
+        <v>11.0827071535817</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.517499724201775</v>
+        <v>11.0579654993753</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>42.20143520044848</v>
+        <v>38.89982020695339</v>
       </c>
       <c r="H14">
-        <v>11.70926032846044</v>
+        <v>16.23871122028322</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.617657151945265</v>
+        <v>10.08489862105882</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.37381789445891</v>
+        <v>21.13071752832144</v>
       </c>
       <c r="C15">
-        <v>16.27625632751027</v>
+        <v>11.04703129362987</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.519898602623964</v>
+        <v>11.06158807818005</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>41.98556804169689</v>
+        <v>38.8803162162125</v>
       </c>
       <c r="H15">
-        <v>11.68490283327036</v>
+        <v>16.24370940599913</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.582415447163585</v>
+        <v>10.08016105098692</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.29806742932831</v>
+        <v>20.74466204673618</v>
       </c>
       <c r="C16">
-        <v>15.82086324103672</v>
+        <v>10.8398903679636</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.535457122794408</v>
+        <v>11.08286346066742</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>40.76595129961648</v>
+        <v>38.77464199889152</v>
       </c>
       <c r="H16">
-        <v>11.55296334858834</v>
+        <v>16.27385532033324</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.380148400910617</v>
+        <v>10.05354281176854</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.62485491803428</v>
+        <v>20.50513962644961</v>
       </c>
       <c r="C17">
-        <v>15.53666065028887</v>
+        <v>10.71044332914866</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.546564748126646</v>
+        <v>11.09637537443476</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>40.03313834570538</v>
+        <v>38.71525898462899</v>
       </c>
       <c r="H17">
-        <v>11.47863477404906</v>
+        <v>16.29368469883324</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.255790804471671</v>
+        <v>10.0376916308367</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.232679017969</v>
+        <v>20.36643265327006</v>
       </c>
       <c r="C18">
-        <v>15.37140179324062</v>
+        <v>10.63513087895515</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.553507459335937</v>
+        <v>11.10431611925603</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>39.61724157574321</v>
+        <v>38.68310570032709</v>
       </c>
       <c r="H18">
-        <v>11.43823050175576</v>
+        <v>16.30557870117321</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.184166643000216</v>
+        <v>10.02875196496529</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.09903515530943</v>
+        <v>20.3193121767173</v>
       </c>
       <c r="C19">
-        <v>15.31513867697203</v>
+        <v>10.60948542251376</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.555951394624753</v>
+        <v>11.10703374814946</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>39.47738336142908</v>
+        <v>38.67256307887537</v>
       </c>
       <c r="H19">
-        <v>11.42494570954062</v>
+        <v>16.30968952009555</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.159899772496006</v>
+        <v>10.02575579863207</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.6970312408798</v>
+        <v>20.53073560778505</v>
       </c>
       <c r="C20">
-        <v>15.56709973895685</v>
+        <v>10.72431230844315</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.545324545205687</v>
+        <v>11.09491951095051</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>40.11056712877244</v>
+        <v>38.72137319746327</v>
       </c>
       <c r="H20">
-        <v>11.48630236079906</v>
+        <v>16.29152320151249</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.269039025131995</v>
+        <v>10.03936068303599</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.64752249094986</v>
+        <v>21.22951980637182</v>
       </c>
       <c r="C21">
-        <v>16.3923512163461</v>
+        <v>11.09976653438643</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.516382216216578</v>
+        <v>11.05623750142718</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>42.30526054400291</v>
+        <v>38.90928061130271</v>
       </c>
       <c r="H21">
-        <v>11.72107856083805</v>
+        <v>16.23634112553782</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.634551000326429</v>
+        <v>10.08717973981081</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.87993886272383</v>
+        <v>21.67684928086977</v>
       </c>
       <c r="C22">
-        <v>16.91613863642986</v>
+        <v>11.33722202717566</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.502848887356443</v>
+        <v>11.03246315652572</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>43.79090671854849</v>
+        <v>39.04987159819166</v>
       </c>
       <c r="H22">
-        <v>11.89717946120039</v>
+        <v>16.20467529785113</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.87253283280052</v>
+        <v>10.11997474737619</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.22595440682962</v>
+        <v>21.43900350868357</v>
       </c>
       <c r="C23">
-        <v>16.637983588058</v>
+        <v>11.21122554492304</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.509556411771776</v>
+        <v>11.04501405830609</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>42.99320346652525</v>
+        <v>38.97321223479829</v>
       </c>
       <c r="H23">
-        <v>11.80103181866142</v>
+        <v>16.22117119636362</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.745598745249977</v>
+        <v>10.10233221792709</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.66441634577923</v>
+        <v>20.51916677524367</v>
       </c>
       <c r="C24">
-        <v>15.55334404618305</v>
+        <v>10.7180449168666</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.545883511498173</v>
+        <v>11.09557716932982</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>40.07554474670105</v>
+        <v>38.71860277285643</v>
       </c>
       <c r="H24">
-        <v>11.48282861236323</v>
+        <v>16.29249887671686</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.263049906555354</v>
+        <v>10.03860556404498</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.71082285286946</v>
+        <v>19.49176824313264</v>
       </c>
       <c r="C25">
-        <v>14.31478909158636</v>
+        <v>10.15349256044961</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.606030964743159</v>
+        <v>11.15658021319915</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>37.14240556845535</v>
+        <v>38.52046493493215</v>
       </c>
       <c r="H25">
-        <v>11.22831145473215</v>
+        <v>16.38809030694387</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.738994948830482</v>
+        <v>9.976671444695553</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.71113896771032</v>
+        <v>24.3632743421866</v>
       </c>
       <c r="C2">
-        <v>9.711612252535442</v>
+        <v>13.34272138286606</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.20705533867923</v>
+        <v>6.666229736484193</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>38.44006884876254</v>
+        <v>35.16312204858365</v>
       </c>
       <c r="H2">
-        <v>16.47425620400155</v>
+        <v>11.1076544425385</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.937090530883424</v>
+        <v>7.35103070448533</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.17061707178904</v>
+        <v>22.66057626118389</v>
       </c>
       <c r="C3">
-        <v>9.396928590263286</v>
+        <v>12.64652410674531</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.24473097846779</v>
+        <v>6.716016010901941</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>38.42605159419219</v>
+        <v>33.93350791144962</v>
       </c>
       <c r="H3">
-        <v>16.54236111961629</v>
+        <v>11.06265187112063</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.914095803461628</v>
+        <v>7.087663224036445</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.83442004836189</v>
+        <v>21.55883219327837</v>
       </c>
       <c r="C4">
-        <v>9.196653604177982</v>
+        <v>12.20084601165918</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.26957486677224</v>
+        <v>6.75073867439937</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>38.43721151655754</v>
+        <v>33.23332883715565</v>
       </c>
       <c r="H4">
-        <v>16.58892091059538</v>
+        <v>11.05152411173927</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.901887477985008</v>
+        <v>6.926134972681726</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.69655126238573</v>
+        <v>21.09555356058758</v>
       </c>
       <c r="C5">
-        <v>9.113341173616302</v>
+        <v>12.01471387382758</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.28012917057682</v>
+        <v>6.765894117669704</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>38.44669488880991</v>
+        <v>32.96169859056343</v>
       </c>
       <c r="H5">
-        <v>16.60908014058028</v>
+        <v>11.05089672170967</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.897395957941125</v>
+        <v>6.860426861910559</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.67361262419753</v>
+        <v>21.01775792347097</v>
       </c>
       <c r="C6">
-        <v>9.099406981567117</v>
+        <v>11.98353648427925</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.28190768892811</v>
+        <v>6.768470322504099</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>38.44856654438062</v>
+        <v>32.91741825968158</v>
       </c>
       <c r="H6">
-        <v>16.61249897573836</v>
+        <v>11.05102144911253</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.896679426066289</v>
+        <v>6.849525303896704</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.83256390805282</v>
+        <v>21.55264239087767</v>
       </c>
       <c r="C7">
-        <v>9.195536795587095</v>
+        <v>12.19835394456174</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.2697154638653</v>
+        <v>6.750939043436785</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>38.43731947976798</v>
+        <v>33.22961022815019</v>
       </c>
       <c r="H7">
-        <v>16.58918799337007</v>
+        <v>11.05150015048298</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.901824942493375</v>
+        <v>6.925248241322472</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.52578979285231</v>
+        <v>23.78776670183407</v>
       </c>
       <c r="C8">
-        <v>9.604617440648138</v>
+        <v>13.10648283741723</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.21969080287876</v>
+        <v>6.682509774077404</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>38.43111426944837</v>
+        <v>34.72774162166822</v>
       </c>
       <c r="H8">
-        <v>16.49675019808315</v>
+        <v>11.08856602193175</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.92876737056041</v>
+        <v>7.26022379284942</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.84204279218102</v>
+        <v>27.73203321018855</v>
       </c>
       <c r="C9">
-        <v>10.34786725434179</v>
+        <v>14.74130150574552</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.13516778260468</v>
+        <v>6.583165165252375</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>38.57700029823251</v>
+        <v>38.10228148044047</v>
       </c>
       <c r="H9">
-        <v>16.35342084168226</v>
+        <v>11.30303565014459</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.996609423952947</v>
+        <v>7.91593948088599</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.77186227699329</v>
+        <v>30.37421926596476</v>
       </c>
       <c r="C10">
-        <v>10.85454388358351</v>
+        <v>15.85305090175096</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.08134456805858</v>
+        <v>6.534266183244409</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>38.78168925773615</v>
+        <v>40.85033249867387</v>
       </c>
       <c r="H10">
-        <v>16.27165902980875</v>
+        <v>11.56176881594062</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.05537546942686</v>
+        <v>8.394325022260233</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.18477064987499</v>
+        <v>31.52363161607423</v>
       </c>
       <c r="C11">
-        <v>11.07589536486481</v>
+        <v>16.33979053259047</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.0586562506748</v>
+        <v>6.517951299181352</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>38.89606688083302</v>
+        <v>42.16008677995771</v>
       </c>
       <c r="H11">
-        <v>16.23966119317112</v>
+        <v>11.70457226598771</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.08399061129173</v>
+        <v>8.610919064595132</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.33953324844894</v>
+        <v>31.95160008153939</v>
       </c>
       <c r="C12">
-        <v>11.15835941308749</v>
+        <v>16.52143139201154</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.05032313608173</v>
+        <v>6.512690669155758</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>38.9424314140771</v>
+        <v>42.66483155455961</v>
       </c>
       <c r="H12">
-        <v>16.22829845391358</v>
+        <v>11.76251570775557</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.09509166201046</v>
+        <v>8.692782688927899</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.3062755853303</v>
+        <v>31.85974908061673</v>
       </c>
       <c r="C13">
-        <v>11.14066028138101</v>
+        <v>16.48242973202776</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.0521063234654</v>
+        <v>6.513781739630478</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>38.93231040392367</v>
+        <v>42.55573149066247</v>
       </c>
       <c r="H13">
-        <v>16.23071197318855</v>
+        <v>11.74986044858618</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.09268915292678</v>
+        <v>8.675158796388043</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.1975358645325</v>
+        <v>31.5589853063829</v>
       </c>
       <c r="C14">
-        <v>11.0827071535817</v>
+        <v>16.35478749217861</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.0579654993753</v>
+        <v>6.517499724201745</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>38.89982020695339</v>
+        <v>42.20143520044847</v>
       </c>
       <c r="H14">
-        <v>16.23871122028322</v>
+        <v>11.70926032846044</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.08489862105882</v>
+        <v>8.617657151945252</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.13071752832144</v>
+        <v>31.37381789445888</v>
       </c>
       <c r="C15">
-        <v>11.04703129362987</v>
+        <v>16.27625632751032</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.06158807818005</v>
+        <v>6.519898602624012</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>38.8803162162125</v>
+        <v>41.98556804169696</v>
       </c>
       <c r="H15">
-        <v>16.24370940599913</v>
+        <v>11.6849028332704</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.08016105098692</v>
+        <v>8.582415447163601</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.74466204673618</v>
+        <v>30.29806742932823</v>
       </c>
       <c r="C16">
-        <v>10.8398903679636</v>
+        <v>15.82086324103678</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.08286346066742</v>
+        <v>6.535457122794631</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>38.77464199889152</v>
+        <v>40.76595129961658</v>
       </c>
       <c r="H16">
-        <v>16.27385532033324</v>
+        <v>11.55296334858836</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.05354281176854</v>
+        <v>8.380148400910661</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.50513962644961</v>
+        <v>29.62485491803428</v>
       </c>
       <c r="C17">
-        <v>10.71044332914866</v>
+        <v>15.53666065028878</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.09637537443476</v>
+        <v>6.546564748126533</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>38.71525898462899</v>
+        <v>40.03313834570549</v>
       </c>
       <c r="H17">
-        <v>16.29368469883324</v>
+        <v>11.47863477404911</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.0376916308367</v>
+        <v>8.255790804471648</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.36643265327006</v>
+        <v>29.23267901796901</v>
       </c>
       <c r="C18">
-        <v>10.63513087895515</v>
+        <v>15.37140179324063</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.10431611925603</v>
+        <v>6.553507459336001</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>38.68310570032709</v>
+        <v>39.6172415757433</v>
       </c>
       <c r="H18">
-        <v>16.30557870117321</v>
+        <v>11.43823050175581</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.02875196496529</v>
+        <v>8.184166643000241</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.3193121767173</v>
+        <v>29.09903515530937</v>
       </c>
       <c r="C19">
-        <v>10.60948542251376</v>
+        <v>15.31513867697198</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.10703374814946</v>
+        <v>6.555951394624684</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>38.67256307887537</v>
+        <v>39.47738336142917</v>
       </c>
       <c r="H19">
-        <v>16.30968952009555</v>
+        <v>11.42494570954067</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.02575579863207</v>
+        <v>8.159899772495979</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.53073560778505</v>
+        <v>29.69703124087987</v>
       </c>
       <c r="C20">
-        <v>10.72431230844315</v>
+        <v>15.56709973895668</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.09491951095051</v>
+        <v>6.545324545205683</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>38.72137319746327</v>
+        <v>40.11056712877244</v>
       </c>
       <c r="H20">
-        <v>16.29152320151249</v>
+        <v>11.48630236079908</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.03936068303599</v>
+        <v>8.269039025131999</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.22951980637182</v>
+        <v>31.64752249094992</v>
       </c>
       <c r="C21">
-        <v>11.09976653438643</v>
+        <v>16.39235121634616</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.05623750142718</v>
+        <v>6.516382216216621</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>38.90928061130271</v>
+        <v>42.30526054400291</v>
       </c>
       <c r="H21">
-        <v>16.23634112553782</v>
+        <v>11.72107856083806</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.08717973981081</v>
+        <v>8.634551000326416</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.67684928086977</v>
+        <v>32.87993886272387</v>
       </c>
       <c r="C22">
-        <v>11.33722202717566</v>
+        <v>16.91613863642985</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.03246315652572</v>
+        <v>6.50284888735638</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>39.04987159819166</v>
+        <v>43.79090671854846</v>
       </c>
       <c r="H22">
-        <v>16.20467529785113</v>
+        <v>11.89717946120039</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.11997474737619</v>
+        <v>8.872532832800514</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.43900350868357</v>
+        <v>32.22595440682962</v>
       </c>
       <c r="C23">
-        <v>11.21122554492304</v>
+        <v>16.63798358805806</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.04501405830609</v>
+        <v>6.509556411771883</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>38.97321223479829</v>
+        <v>42.99320346652523</v>
       </c>
       <c r="H23">
-        <v>16.22117119636362</v>
+        <v>11.80103181866141</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.10233221792709</v>
+        <v>8.745598745250001</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.51916677524367</v>
+        <v>29.66441634577929</v>
       </c>
       <c r="C24">
-        <v>10.7180449168666</v>
+        <v>15.5533440461829</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.09557716932982</v>
+        <v>6.545883511498085</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>38.71860277285643</v>
+        <v>40.0755447467013</v>
       </c>
       <c r="H24">
-        <v>16.29249887671686</v>
+        <v>11.4828286123632</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.03860556404498</v>
+        <v>8.263049906555343</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.49176824313264</v>
+        <v>26.71082285286944</v>
       </c>
       <c r="C25">
-        <v>10.15349256044961</v>
+        <v>14.31478909158637</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.15658021319915</v>
+        <v>6.606030964743153</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>38.52046493493215</v>
+        <v>37.14240556845535</v>
       </c>
       <c r="H25">
-        <v>16.38809030694387</v>
+        <v>11.22831145473216</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.976671444695553</v>
+        <v>7.738994948830478</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3632743421866</v>
+        <v>14.15658917140035</v>
       </c>
       <c r="C2">
-        <v>13.34272138286606</v>
+        <v>6.434326794818521</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.666229736484193</v>
+        <v>7.796586060038613</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>35.16312204858365</v>
+        <v>29.97104283822659</v>
       </c>
       <c r="H2">
-        <v>11.1076544425385</v>
+        <v>2.663587641218508</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.568359410247413</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.94902374832823</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.75150515579881</v>
       </c>
       <c r="L2">
-        <v>7.35103070448533</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.10806682678556</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.214841195144818</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.59108392706917</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.66057626118389</v>
+        <v>13.29755796669485</v>
       </c>
       <c r="C3">
-        <v>12.64652410674531</v>
+        <v>6.141503264139794</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.716016010901941</v>
+        <v>7.514232927251101</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>33.93350791144962</v>
+        <v>29.53747261686099</v>
       </c>
       <c r="H3">
-        <v>11.06265187112063</v>
+        <v>2.859422071383465</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.726154740068111</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.94842943362003</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.72253675845822</v>
       </c>
       <c r="L3">
-        <v>7.087663224036445</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.40951776583982</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.932780997310455</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.73595601560823</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.55883219327837</v>
+        <v>12.7396055784621</v>
       </c>
       <c r="C4">
-        <v>12.20084601165918</v>
+        <v>5.956220631961844</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.75073867439937</v>
+        <v>7.333997855275025</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>33.23332883715565</v>
+        <v>29.27663313768075</v>
       </c>
       <c r="H4">
-        <v>11.05152411173927</v>
+        <v>2.984112970570048</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.827246678350983</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.95046817721399</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.70727192407903</v>
       </c>
       <c r="L4">
-        <v>6.926134972681726</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.955233769662009</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.753757207984061</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.82612739522875</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.09555356058758</v>
+        <v>12.49843769529969</v>
       </c>
       <c r="C5">
-        <v>12.01471387382758</v>
+        <v>5.883097514732681</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.765894117669704</v>
+        <v>7.256934505564844</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>32.96169859056343</v>
+        <v>29.15377259607923</v>
       </c>
       <c r="H5">
-        <v>11.05089672170967</v>
+        <v>3.036458231622696</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.872110929557455</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.94876558566105</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.69453254037637</v>
       </c>
       <c r="L5">
-        <v>6.860426861910559</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.762085262383206</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.679679788600456</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.86219416831471</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01775792347097</v>
+        <v>12.45033260988284</v>
       </c>
       <c r="C6">
-        <v>11.98353648427925</v>
+        <v>5.875469796590782</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.768470322504099</v>
+        <v>7.241667228438279</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>32.91741825968158</v>
+        <v>29.11150132750255</v>
       </c>
       <c r="H6">
-        <v>11.05102144911253</v>
+        <v>3.045706114051634</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.882948865761617</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.94470123084852</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.68373377347567</v>
       </c>
       <c r="L6">
-        <v>6.849525303896704</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.727611643616042</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.667632750068461</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.86699161447958</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55264239087767</v>
+        <v>12.71607038990898</v>
       </c>
       <c r="C7">
-        <v>12.19835394456174</v>
+        <v>5.967611241099555</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.750939043436785</v>
+        <v>7.326580833335</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>33.22961022815019</v>
+        <v>29.21532902578102</v>
       </c>
       <c r="H7">
-        <v>11.05150015048298</v>
+        <v>2.986122913662412</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.836648551674726</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.94004604551545</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.68333710862355</v>
       </c>
       <c r="L7">
-        <v>6.925248241322472</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.9472662961875</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.753676446896593</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.82337555842475</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78776670183407</v>
+        <v>13.8418223266679</v>
       </c>
       <c r="C8">
-        <v>13.10648283741723</v>
+        <v>6.350104755300129</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.682509774077404</v>
+        <v>7.692644698281262</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>34.72774162166822</v>
+        <v>29.74318889536098</v>
       </c>
       <c r="H8">
-        <v>11.08856602193175</v>
+        <v>2.731835232395613</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.633101570278515</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.93468778916006</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.70984716094452</v>
       </c>
       <c r="L8">
-        <v>7.26022379284942</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.86584760780129</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.120024655861521</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.63682638739273</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.73203321018855</v>
+        <v>15.83724774922693</v>
       </c>
       <c r="C9">
-        <v>14.74130150574552</v>
+        <v>7.035635850900807</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.583165165252375</v>
+        <v>8.364785956578045</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>38.10228148044047</v>
+        <v>30.9230135174539</v>
       </c>
       <c r="H9">
-        <v>11.30303565014459</v>
+        <v>2.265598995600894</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.252383698793512</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.96234255203918</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.82461384841604</v>
       </c>
       <c r="L9">
-        <v>7.91593948088599</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.47471106826845</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.78786436324649</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.28532611869249</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.37421926596476</v>
+        <v>17.07601158938757</v>
       </c>
       <c r="C10">
-        <v>15.85305090175096</v>
+        <v>7.546069592037437</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.534266183244409</v>
+        <v>8.659819595084803</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>40.85033249867387</v>
+        <v>31.51558063341121</v>
       </c>
       <c r="H10">
-        <v>11.56176881594062</v>
+        <v>1.976518830594055</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.004542833909544</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.94175539197148</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.80660159015439</v>
       </c>
       <c r="L10">
-        <v>8.394325022260233</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.50544118300483</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.110439421950868</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>13.02028233043448</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.52363161607423</v>
+        <v>17.00343463040401</v>
       </c>
       <c r="C11">
-        <v>16.33979053259047</v>
+        <v>8.043005952002062</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.517951299181352</v>
+        <v>7.510099358691775</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>42.16008677995771</v>
+        <v>29.39044001536302</v>
       </c>
       <c r="H11">
-        <v>11.70457226598771</v>
+        <v>2.925855997703029</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.969298911687757</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.50046489125011</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.87989783264927</v>
       </c>
       <c r="L11">
-        <v>8.610919064595132</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.7103313354477</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.113843035152917</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.83943319147803</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.95160008153939</v>
+        <v>16.70756788622135</v>
       </c>
       <c r="C12">
-        <v>16.52143139201154</v>
+        <v>8.354759843320588</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.512690669155758</v>
+        <v>6.667391639343051</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>42.66483155455961</v>
+        <v>27.55137966504392</v>
       </c>
       <c r="H12">
-        <v>11.76251570775557</v>
+        <v>4.271283379682486</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.96946825696868</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.15213832168302</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.16075778095273</v>
       </c>
       <c r="L12">
-        <v>8.692782688927899</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.67996103545079</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.246755565828899</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.78299853002297</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.85974908061673</v>
+        <v>16.18843795837857</v>
       </c>
       <c r="C13">
-        <v>16.48242973202776</v>
+        <v>8.56434754876615</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.513781739630478</v>
+        <v>6.061912244433193</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>42.55573149066247</v>
+        <v>25.72384196062474</v>
       </c>
       <c r="H13">
-        <v>11.74986044858618</v>
+        <v>5.677264623377519</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.011926750599879</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.839784460459681</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.52758641589466</v>
       </c>
       <c r="L13">
-        <v>8.675158796388043</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.45968260565306</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.437685183466022</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.81053559972481</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.5589853063829</v>
+        <v>15.71150751412953</v>
       </c>
       <c r="C14">
-        <v>16.35478749217861</v>
+        <v>8.672015400824023</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.517499724201745</v>
+        <v>5.821782532945727</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>42.20143520044847</v>
+        <v>24.44443018609865</v>
       </c>
       <c r="H14">
-        <v>11.70926032846044</v>
+        <v>6.678588049254808</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.063396093960349</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.638419088885069</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.12907976698561</v>
       </c>
       <c r="L14">
-        <v>8.617657151945252</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.21550629436397</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.926383358184824</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.87041981514012</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.37381789445888</v>
+        <v>15.5398457016441</v>
       </c>
       <c r="C15">
-        <v>16.27625632751032</v>
+        <v>8.680323064094278</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.519898602624012</v>
+        <v>5.78725693640606</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>41.98556804169696</v>
+        <v>24.11947042478154</v>
       </c>
       <c r="H15">
-        <v>11.6849028332704</v>
+        <v>6.912688791760455</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.089924856421013</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.593922767309014</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.04209680315033</v>
       </c>
       <c r="L15">
-        <v>8.582415447163601</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.11265011343388</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.810509378997914</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.8980580572155</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.29806742932823</v>
+        <v>15.0846837381176</v>
       </c>
       <c r="C16">
-        <v>15.82086324103678</v>
+        <v>8.446705685226709</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.535457122794631</v>
+        <v>5.747753734909346</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>40.76595129961658</v>
+        <v>24.17331499934573</v>
       </c>
       <c r="H16">
-        <v>11.55296334858836</v>
+        <v>6.722055730313707</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.192864663508066</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.661759119593565</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.17104694984784</v>
       </c>
       <c r="L16">
-        <v>8.380148400910661</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.71625232585182</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.805072378029274</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.99275003439602</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.62485491803428</v>
+        <v>14.9953037353816</v>
       </c>
       <c r="C17">
-        <v>15.53666065028878</v>
+        <v>8.203683300356444</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.546564748126533</v>
+        <v>5.809914157909943</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>40.03313834570549</v>
+        <v>24.89234212049913</v>
       </c>
       <c r="H17">
-        <v>11.47863477404911</v>
+        <v>6.015092209130422</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.245379310231998</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.818722566100647</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.47420146433135</v>
       </c>
       <c r="L17">
-        <v>8.255790804471648</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.54184566268302</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.061794040294616</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>13.03355638816518</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.23267901796901</v>
+        <v>15.230473989058</v>
       </c>
       <c r="C18">
-        <v>15.37140179324063</v>
+        <v>7.920792954793613</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.553507459336001</v>
+        <v>6.154784924169963</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>39.6172415757433</v>
+        <v>26.32380450651464</v>
       </c>
       <c r="H18">
-        <v>11.43823050175581</v>
+        <v>4.816887627546637</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.247817300660826</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.08255196069972</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.99851842743874</v>
       </c>
       <c r="L18">
-        <v>8.184166643000241</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.54917247270812</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.642482461199907</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.0492590465253</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.09903515530937</v>
+        <v>15.67286122793179</v>
       </c>
       <c r="C19">
-        <v>15.31513867697198</v>
+        <v>7.66193769696895</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.555951394624684</v>
+        <v>6.915450375751345</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>39.47738336142917</v>
+        <v>28.15744759230715</v>
       </c>
       <c r="H19">
-        <v>11.42494570954067</v>
+        <v>3.430142622982812</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.22478506161131</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.4065032576651</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.66128532906658</v>
       </c>
       <c r="L19">
-        <v>8.159899772495979</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.69508755213295</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.508866441181718</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.06857051012568</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.69703124087987</v>
+        <v>16.70772171708295</v>
       </c>
       <c r="C20">
-        <v>15.56709973895668</v>
+        <v>7.448178080556652</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.545324545205683</v>
+        <v>8.559982539451193</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>40.11056712877244</v>
+        <v>31.17549010993393</v>
       </c>
       <c r="H20">
-        <v>11.48630236079908</v>
+        <v>2.054135752565336</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.098612115645832</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.91294307634954</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.73479153539608</v>
       </c>
       <c r="L20">
-        <v>8.269039025131999</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.22825623746198</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.023667050808179</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.08158901985841</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.64752249094992</v>
+        <v>17.72881250321954</v>
       </c>
       <c r="C21">
-        <v>16.39235121634616</v>
+        <v>7.778830005825725</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.516382216216621</v>
+        <v>9.027098463540762</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>42.30526054400291</v>
+        <v>32.09527065316506</v>
       </c>
       <c r="H21">
-        <v>11.72107856083806</v>
+        <v>1.788459197128304</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.89834161380419</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.98442827843583</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.90368265150354</v>
       </c>
       <c r="L21">
-        <v>8.634551000326416</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.02691563268585</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.470676658619672</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.89739607820986</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.87993886272387</v>
+        <v>18.35208276823574</v>
       </c>
       <c r="C22">
-        <v>16.91613863642985</v>
+        <v>7.99237608056997</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.50284888735638</v>
+        <v>9.249615248554106</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>43.79090671854846</v>
+        <v>32.62962457093408</v>
       </c>
       <c r="H22">
-        <v>11.89717946120039</v>
+        <v>1.632397511434882</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.761799285810322</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.02167614156373</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.99274388975425</v>
       </c>
       <c r="L22">
-        <v>8.872532832800514</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.51798945564036</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.685234984275654</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.77533478916532</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.22595440682962</v>
+        <v>18.03961609714834</v>
       </c>
       <c r="C23">
-        <v>16.63798358805806</v>
+        <v>7.867060639717895</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.509556411771883</v>
+        <v>9.137566401417201</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>42.99320346652523</v>
+        <v>32.40686724619883</v>
       </c>
       <c r="H23">
-        <v>11.80103181866141</v>
+        <v>1.714153499206494</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.822377379962134</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.01324502830551</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.97160492789452</v>
       </c>
       <c r="L23">
-        <v>8.745598745250001</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.26260300068168</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.570371055291675</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.84315853270653</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.66441634577929</v>
+        <v>16.77379930974693</v>
       </c>
       <c r="C24">
-        <v>15.5533440461829</v>
+        <v>7.400804394622726</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.545883511498085</v>
+        <v>8.68991201509651</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>40.0755447467013</v>
+        <v>31.47421217112188</v>
       </c>
       <c r="H24">
-        <v>11.4828286123632</v>
+        <v>2.032336554668248</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.077986865107328</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.96877854623316</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.85633317809619</v>
       </c>
       <c r="L24">
-        <v>8.263049906555343</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.24442697911362</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.123571353735102</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.09708151382013</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.71082285286944</v>
+        <v>15.29300119756415</v>
       </c>
       <c r="C25">
-        <v>14.31478909158637</v>
+        <v>6.874878148799503</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.606030964743153</v>
+        <v>8.17895189715035</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>37.14240556845535</v>
+        <v>30.49762369187761</v>
       </c>
       <c r="H25">
-        <v>11.22831145473216</v>
+        <v>2.390211992678209</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.368026047790138</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.93428785489174</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.74933025563372</v>
       </c>
       <c r="L25">
-        <v>7.738994948830478</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.0527145060475</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.614345603859811</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.37466652980926</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15658917140035</v>
+        <v>13.64359128218992</v>
       </c>
       <c r="C2">
-        <v>6.434326794818521</v>
+        <v>6.406981270833321</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.796586060038613</v>
+        <v>7.67446843294042</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>29.97104283822659</v>
+        <v>27.76748986798125</v>
       </c>
       <c r="H2">
-        <v>2.663587641218508</v>
+        <v>2.510733346521531</v>
       </c>
       <c r="I2">
-        <v>3.568359410247413</v>
+        <v>3.383665597724232</v>
       </c>
       <c r="J2">
-        <v>10.94902374832823</v>
+        <v>10.71795040322536</v>
       </c>
       <c r="K2">
-        <v>17.75150515579881</v>
+        <v>16.76995986020475</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.48571326848528</v>
       </c>
       <c r="M2">
-        <v>11.10806682678556</v>
+        <v>11.33157628706453</v>
       </c>
       <c r="N2">
-        <v>7.214841195144818</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.05658150919361</v>
       </c>
       <c r="P2">
-        <v>13.59108392706917</v>
+        <v>7.344897184193515</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.3399573823266</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.29755796669485</v>
+        <v>12.82860759176643</v>
       </c>
       <c r="C3">
-        <v>6.141503264139794</v>
+        <v>6.055078114381822</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.514232927251101</v>
+        <v>7.419297748146517</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>29.53747261686099</v>
+        <v>27.54238207533282</v>
       </c>
       <c r="H3">
-        <v>2.859422071383465</v>
+        <v>2.689965446684186</v>
       </c>
       <c r="I3">
-        <v>3.726154740068111</v>
+        <v>3.521355004352879</v>
       </c>
       <c r="J3">
-        <v>10.94842943362003</v>
+        <v>10.70430487037857</v>
       </c>
       <c r="K3">
-        <v>17.72253675845822</v>
+        <v>16.798815005953</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.59396131962216</v>
       </c>
       <c r="M3">
-        <v>10.40951776583982</v>
+        <v>11.29534866444519</v>
       </c>
       <c r="N3">
-        <v>6.932780997310455</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.38081577265202</v>
       </c>
       <c r="P3">
-        <v>13.73595601560823</v>
+        <v>7.069315722215121</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.47783050735409</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.7396055784621</v>
+        <v>12.29795160363293</v>
       </c>
       <c r="C4">
-        <v>5.956220631961844</v>
+        <v>5.83167500665986</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.333997855275025</v>
+        <v>7.256458852520846</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>29.27663313768075</v>
+        <v>27.4120871215393</v>
       </c>
       <c r="H4">
-        <v>2.984112970570048</v>
+        <v>2.80416628288481</v>
       </c>
       <c r="I4">
-        <v>3.827246678350983</v>
+        <v>3.609910836841342</v>
       </c>
       <c r="J4">
-        <v>10.95046817721399</v>
+        <v>10.69634059329599</v>
       </c>
       <c r="K4">
-        <v>17.70727192407903</v>
+        <v>16.81798128180111</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.65993624793304</v>
       </c>
       <c r="M4">
-        <v>9.955233769662009</v>
+        <v>11.28904519716375</v>
       </c>
       <c r="N4">
-        <v>6.753757207984061</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.941440406990223</v>
       </c>
       <c r="P4">
-        <v>13.82612739522875</v>
+        <v>6.894790211919548</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.56402808567091</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.49843769529969</v>
+        <v>12.06813503071985</v>
       </c>
       <c r="C5">
-        <v>5.883097514732681</v>
+        <v>5.743091479114612</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.256934505564844</v>
+        <v>7.186770902051714</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>29.15377259607923</v>
+        <v>27.34400587866033</v>
       </c>
       <c r="H5">
-        <v>3.036458231622696</v>
+        <v>2.852135843527195</v>
       </c>
       <c r="I5">
-        <v>3.872110929557455</v>
+        <v>3.650037053953554</v>
       </c>
       <c r="J5">
-        <v>10.94876558566105</v>
+        <v>10.69018054880331</v>
       </c>
       <c r="K5">
-        <v>17.69453254037637</v>
+        <v>16.81956029938581</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.68057556316483</v>
       </c>
       <c r="M5">
-        <v>9.762085262383206</v>
+        <v>11.28667824069847</v>
       </c>
       <c r="N5">
-        <v>6.679679788600456</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.754692962444492</v>
       </c>
       <c r="P5">
-        <v>13.86219416831471</v>
+        <v>6.822664578629997</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.59881861577031</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.45033260988284</v>
+        <v>12.02216038430288</v>
       </c>
       <c r="C6">
-        <v>5.875469796590782</v>
+        <v>5.733499655739043</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.241667228438279</v>
+        <v>7.172879343550311</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>29.11150132750255</v>
+        <v>27.31215150100492</v>
       </c>
       <c r="H6">
-        <v>3.045706114051634</v>
+        <v>2.860622842406149</v>
       </c>
       <c r="I6">
-        <v>3.882948865761617</v>
+        <v>3.660641153554175</v>
       </c>
       <c r="J6">
-        <v>10.94470123084852</v>
+        <v>10.68547877638736</v>
       </c>
       <c r="K6">
-        <v>17.68373377347567</v>
+        <v>16.81180774085945</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.67652489882308</v>
       </c>
       <c r="M6">
-        <v>9.727611643616042</v>
+        <v>11.28186539518901</v>
       </c>
       <c r="N6">
-        <v>6.667632750068461</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.721400207052401</v>
       </c>
       <c r="P6">
-        <v>13.86699161447958</v>
+        <v>6.810929700871192</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.60373508247567</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.71607038990898</v>
+        <v>12.26989136186228</v>
       </c>
       <c r="C7">
-        <v>5.967611241099555</v>
+        <v>5.83585283426229</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.326580833335</v>
+        <v>7.251732647594252</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.21532902578102</v>
+        <v>27.41151833330804</v>
       </c>
       <c r="H7">
-        <v>2.986122913662412</v>
+        <v>2.806685280962059</v>
       </c>
       <c r="I7">
-        <v>3.836648551674726</v>
+        <v>3.621387010063758</v>
       </c>
       <c r="J7">
-        <v>10.94004604551545</v>
+        <v>10.64838314378601</v>
       </c>
       <c r="K7">
-        <v>17.68333710862355</v>
+        <v>16.78608903039092</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.63112005742932</v>
       </c>
       <c r="M7">
-        <v>9.9472662961875</v>
+        <v>11.26979534956129</v>
       </c>
       <c r="N7">
-        <v>6.753676446896593</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.926460819024985</v>
       </c>
       <c r="P7">
-        <v>13.82337555842475</v>
+        <v>6.893567568127179</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.56103448696016</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8418223266679</v>
+        <v>13.32834868526081</v>
       </c>
       <c r="C8">
-        <v>6.350104755300129</v>
+        <v>6.277584604890432</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.692644698281262</v>
+        <v>7.587405040546377</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>29.74318889536098</v>
+        <v>27.8022092318155</v>
       </c>
       <c r="H8">
-        <v>2.731835232395613</v>
+        <v>2.57521536635476</v>
       </c>
       <c r="I8">
-        <v>3.633101570278515</v>
+        <v>3.445478504631679</v>
       </c>
       <c r="J8">
-        <v>10.93468778916006</v>
+        <v>10.57694431843477</v>
       </c>
       <c r="K8">
-        <v>17.70984716094452</v>
+        <v>16.71835816455387</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.47085322927145</v>
       </c>
       <c r="M8">
-        <v>10.86584760780129</v>
+        <v>11.27478118079956</v>
       </c>
       <c r="N8">
-        <v>7.120024655861521</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.79965961270612</v>
       </c>
       <c r="P8">
-        <v>13.63682638739273</v>
+        <v>7.248659405652525</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.38138492413823</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83724774922693</v>
+        <v>15.21344425865532</v>
       </c>
       <c r="C9">
-        <v>7.035635850900807</v>
+        <v>7.093209446444375</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.364785956578045</v>
+        <v>8.196893356915416</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>30.9230135174539</v>
+        <v>28.52323796619968</v>
       </c>
       <c r="H9">
-        <v>2.265598995600894</v>
+        <v>2.149281681082946</v>
       </c>
       <c r="I9">
-        <v>3.252383698793512</v>
+        <v>3.112744356378586</v>
       </c>
       <c r="J9">
-        <v>10.96234255203918</v>
+        <v>10.59283418250753</v>
       </c>
       <c r="K9">
-        <v>17.82461384841604</v>
+        <v>16.67262088938284</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.21793417558183</v>
       </c>
       <c r="M9">
-        <v>12.47471106826845</v>
+        <v>11.45889324738894</v>
       </c>
       <c r="N9">
-        <v>7.78786436324649</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.35304791128207</v>
       </c>
       <c r="P9">
-        <v>13.28532611869249</v>
+        <v>7.902523670142159</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.04845598412405</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.07601158938757</v>
+        <v>16.35992459421858</v>
       </c>
       <c r="C10">
-        <v>7.546069592037437</v>
+        <v>7.646522909417762</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.659819595084803</v>
+        <v>8.466337969275635</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>31.51558063341121</v>
+        <v>29.15445399943131</v>
       </c>
       <c r="H10">
-        <v>1.976518830594055</v>
+        <v>1.891154253948513</v>
       </c>
       <c r="I10">
-        <v>3.004542833909544</v>
+        <v>2.902490371045128</v>
       </c>
       <c r="J10">
-        <v>10.94175539197148</v>
+        <v>10.35847044577815</v>
       </c>
       <c r="K10">
-        <v>17.80660159015439</v>
+        <v>16.49773933351067</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.92050994783961</v>
       </c>
       <c r="M10">
-        <v>13.50544118300483</v>
+        <v>11.54857670351858</v>
       </c>
       <c r="N10">
-        <v>8.110439421950868</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.31659359822418</v>
       </c>
       <c r="P10">
-        <v>13.02028233043448</v>
+        <v>8.21160771424182</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.80393411782411</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.00343463040401</v>
+        <v>16.28658753813404</v>
       </c>
       <c r="C11">
-        <v>8.043005952002062</v>
+        <v>8.063720173296264</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.510099358691775</v>
+        <v>7.365092200146156</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>29.39044001536302</v>
+        <v>27.88854136186771</v>
       </c>
       <c r="H11">
-        <v>2.925855997703029</v>
+        <v>2.875340153050003</v>
       </c>
       <c r="I11">
-        <v>2.969298911687757</v>
+        <v>2.88322153159086</v>
       </c>
       <c r="J11">
-        <v>10.50046489125011</v>
+        <v>9.625479944115508</v>
       </c>
       <c r="K11">
-        <v>16.87989783264927</v>
+        <v>15.59483886779936</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.2079211821624</v>
       </c>
       <c r="M11">
-        <v>13.7103313354477</v>
+        <v>10.92169508957936</v>
       </c>
       <c r="N11">
-        <v>7.113843035152917</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.45977864685919</v>
       </c>
       <c r="P11">
-        <v>12.83943319147803</v>
+        <v>7.199964553568791</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.69896366495733</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.70756788622135</v>
+        <v>16.02379924096218</v>
       </c>
       <c r="C12">
-        <v>8.354759843320588</v>
+        <v>8.313999436591571</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.667391639343051</v>
+        <v>6.557536198120389</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>27.55137966504392</v>
+        <v>26.54665220295686</v>
       </c>
       <c r="H12">
-        <v>4.271283379682486</v>
+        <v>4.236789026544152</v>
       </c>
       <c r="I12">
-        <v>2.96946825696868</v>
+        <v>2.884990688938351</v>
       </c>
       <c r="J12">
-        <v>10.15213832168302</v>
+        <v>9.24118646643538</v>
       </c>
       <c r="K12">
-        <v>16.16075778095273</v>
+        <v>14.96802509893968</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.75740964744766</v>
       </c>
       <c r="M12">
-        <v>13.67996103545079</v>
+        <v>10.43260385132692</v>
       </c>
       <c r="N12">
-        <v>6.246755565828899</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.41068399987605</v>
       </c>
       <c r="P12">
-        <v>12.78299853002297</v>
+        <v>6.327002032673712</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.70113217591329</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.18843795837857</v>
+        <v>15.57836244966319</v>
       </c>
       <c r="C13">
-        <v>8.56434754876615</v>
+        <v>8.495687517551369</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.061912244433193</v>
+        <v>5.981771157879763</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>25.72384196062474</v>
+        <v>24.84065983007323</v>
       </c>
       <c r="H13">
-        <v>5.677264623377519</v>
+        <v>5.648152152202426</v>
       </c>
       <c r="I13">
-        <v>3.011926750599879</v>
+        <v>2.919666864577273</v>
       </c>
       <c r="J13">
-        <v>9.839784460459681</v>
+        <v>9.089633663680495</v>
       </c>
       <c r="K13">
-        <v>15.52758641589466</v>
+        <v>14.4975200098707</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.44705875845095</v>
       </c>
       <c r="M13">
-        <v>13.45968260565306</v>
+        <v>10.01946506840277</v>
       </c>
       <c r="N13">
-        <v>5.437685183466022</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.21769064559597</v>
       </c>
       <c r="P13">
-        <v>12.81053559972481</v>
+        <v>5.521160033201451</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.76641339147245</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.71150751412953</v>
+        <v>15.17212408388369</v>
       </c>
       <c r="C14">
-        <v>8.672015400824023</v>
+        <v>8.59941531923673</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.821782532945727</v>
+        <v>5.764044805661659</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>24.44443018609865</v>
+        <v>23.49355801828942</v>
       </c>
       <c r="H14">
-        <v>6.678588049254808</v>
+        <v>6.650654838214145</v>
       </c>
       <c r="I14">
-        <v>3.063396093960349</v>
+        <v>2.962110431565821</v>
       </c>
       <c r="J14">
-        <v>9.638419088885069</v>
+        <v>9.062964980537837</v>
       </c>
       <c r="K14">
-        <v>15.12907976698561</v>
+        <v>14.23498989614398</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.2831934253669</v>
       </c>
       <c r="M14">
-        <v>13.21550629436397</v>
+        <v>9.768029121763618</v>
       </c>
       <c r="N14">
-        <v>4.926383358184824</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.01324572023231</v>
       </c>
       <c r="P14">
-        <v>12.87041981514012</v>
+        <v>5.016144511389792</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.83809684045075</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.5398457016441</v>
+        <v>15.02596181652841</v>
       </c>
       <c r="C15">
-        <v>8.680323064094278</v>
+        <v>8.614249966635064</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.78725693640606</v>
+        <v>5.73654941426446</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>24.11947042478154</v>
+        <v>23.09285060107296</v>
       </c>
       <c r="H15">
-        <v>6.912688791760455</v>
+        <v>6.884256411527555</v>
       </c>
       <c r="I15">
-        <v>3.089924856421013</v>
+        <v>2.985180515323283</v>
       </c>
       <c r="J15">
-        <v>9.593922767309014</v>
+        <v>9.087482254264645</v>
       </c>
       <c r="K15">
-        <v>15.04209680315033</v>
+        <v>14.19112075420756</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.25878621029832</v>
       </c>
       <c r="M15">
-        <v>13.11265011343388</v>
+        <v>9.717190348910359</v>
       </c>
       <c r="N15">
-        <v>4.810509378997914</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.92908910474717</v>
       </c>
       <c r="P15">
-        <v>12.8980580572155</v>
+        <v>4.903331200322977</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.86357522539336</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.0846837381176</v>
+        <v>14.63717721485003</v>
       </c>
       <c r="C16">
-        <v>8.446705685226709</v>
+        <v>8.441179321128564</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.747753734909346</v>
+        <v>5.708671276543163</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>24.17331499934573</v>
+        <v>22.67409405814253</v>
       </c>
       <c r="H16">
-        <v>6.722055730313707</v>
+        <v>6.685810025603297</v>
       </c>
       <c r="I16">
-        <v>3.192864663508066</v>
+        <v>3.070179351376439</v>
       </c>
       <c r="J16">
-        <v>9.661759119593565</v>
+        <v>9.397166137605673</v>
       </c>
       <c r="K16">
-        <v>15.17104694984784</v>
+        <v>14.40383045036232</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.42600778641119</v>
       </c>
       <c r="M16">
-        <v>12.71625232585182</v>
+        <v>9.834651699054666</v>
       </c>
       <c r="N16">
-        <v>4.805072378029274</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.60787751562769</v>
       </c>
       <c r="P16">
-        <v>12.99275003439602</v>
+        <v>4.911352775067257</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.92032142473207</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.9953037353816</v>
+        <v>14.55342606261814</v>
       </c>
       <c r="C17">
-        <v>8.203683300356444</v>
+        <v>8.233601614200337</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.809914157909943</v>
+        <v>5.760977953676816</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>24.89234212049913</v>
+        <v>23.13075432432539</v>
       </c>
       <c r="H17">
-        <v>6.015092209130422</v>
+        <v>5.97058788485989</v>
       </c>
       <c r="I17">
-        <v>3.245379310231998</v>
+        <v>3.114500125158979</v>
       </c>
       <c r="J17">
-        <v>9.818722566100647</v>
+        <v>9.643635364458298</v>
       </c>
       <c r="K17">
-        <v>15.47420146433135</v>
+        <v>14.6995045356335</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.6502189056594</v>
       </c>
       <c r="M17">
-        <v>12.54184566268302</v>
+        <v>10.04261375396842</v>
       </c>
       <c r="N17">
-        <v>5.061794040294616</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.46103293181126</v>
       </c>
       <c r="P17">
-        <v>13.03355638816518</v>
+        <v>5.174253533460615</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.93469870688321</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.230473989058</v>
+        <v>14.75083661466184</v>
       </c>
       <c r="C18">
-        <v>7.920792954793613</v>
+        <v>7.981770865317252</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.154784924169963</v>
+        <v>6.073186709063617</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>26.32380450651464</v>
+        <v>24.31444344300416</v>
       </c>
       <c r="H18">
-        <v>4.816887627546637</v>
+        <v>4.760515413649776</v>
       </c>
       <c r="I18">
-        <v>3.247817300660826</v>
+        <v>3.113882703879526</v>
       </c>
       <c r="J18">
-        <v>10.08255196069972</v>
+        <v>9.916502141196386</v>
       </c>
       <c r="K18">
-        <v>15.99851842743874</v>
+        <v>15.1491320497903</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.98927382935913</v>
       </c>
       <c r="M18">
-        <v>12.54917247270812</v>
+        <v>10.38222066444832</v>
       </c>
       <c r="N18">
-        <v>5.642482461199907</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.4693282315267</v>
       </c>
       <c r="P18">
-        <v>13.0492590465253</v>
+        <v>5.756696206312905</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.92286199611791</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67286122793179</v>
+        <v>15.12936902868022</v>
       </c>
       <c r="C19">
-        <v>7.66193769696895</v>
+        <v>7.752457959830848</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.915450375751345</v>
+        <v>6.788285568040829</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>28.15744759230715</v>
+        <v>25.88539902344619</v>
       </c>
       <c r="H19">
-        <v>3.430142622982812</v>
+        <v>3.355263068482254</v>
       </c>
       <c r="I19">
-        <v>3.22478506161131</v>
+        <v>3.095846103718474</v>
       </c>
       <c r="J19">
-        <v>10.4065032576651</v>
+        <v>10.20293345808657</v>
       </c>
       <c r="K19">
-        <v>16.66128532906658</v>
+        <v>15.69236911399308</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.39749972631486</v>
       </c>
       <c r="M19">
-        <v>12.69508755213295</v>
+        <v>10.80325263738881</v>
       </c>
       <c r="N19">
-        <v>6.508866441181718</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.60032025317921</v>
       </c>
       <c r="P19">
-        <v>13.06857051012568</v>
+        <v>6.622253459301072</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.9095507353166</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.70772171708295</v>
+        <v>16.03282524402128</v>
       </c>
       <c r="C20">
-        <v>7.448178080556652</v>
+        <v>7.567023801017984</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.559982539451193</v>
+        <v>8.367198547882486</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>31.17549010993393</v>
+        <v>28.61684204981642</v>
       </c>
       <c r="H20">
-        <v>2.054135752565336</v>
+        <v>1.958546429224182</v>
       </c>
       <c r="I20">
-        <v>3.098612115645832</v>
+        <v>2.990073797193385</v>
       </c>
       <c r="J20">
-        <v>10.91294307634954</v>
+        <v>10.51543727573477</v>
       </c>
       <c r="K20">
-        <v>17.73479153539608</v>
+        <v>16.50973292710464</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.97294044401255</v>
       </c>
       <c r="M20">
-        <v>13.22825623746198</v>
+        <v>11.49503024796827</v>
       </c>
       <c r="N20">
-        <v>8.023667050808179</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.07798159994075</v>
       </c>
       <c r="P20">
-        <v>13.08158901985841</v>
+        <v>8.131411281560172</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.86571584049748</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.72881250321954</v>
+        <v>16.89386349352331</v>
       </c>
       <c r="C21">
-        <v>7.778830005825725</v>
+        <v>7.801929877702084</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.027098463540762</v>
+        <v>8.8459417345393</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>32.09527065316506</v>
+        <v>30.56464965343369</v>
       </c>
       <c r="H21">
-        <v>1.788459197128304</v>
+        <v>1.725953549077907</v>
       </c>
       <c r="I21">
-        <v>2.89834161380419</v>
+        <v>2.828581002606145</v>
       </c>
       <c r="J21">
-        <v>10.98442827843583</v>
+        <v>9.792041031044798</v>
       </c>
       <c r="K21">
-        <v>17.90368265150354</v>
+        <v>16.3455918306278</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.72923034138087</v>
       </c>
       <c r="M21">
-        <v>14.02691563268585</v>
+        <v>11.55215037344254</v>
       </c>
       <c r="N21">
-        <v>8.470676658619672</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.71803882822362</v>
       </c>
       <c r="P21">
-        <v>12.89739607820986</v>
+        <v>8.552263761026998</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.67988947863509</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.35208276823574</v>
+        <v>17.41456256048525</v>
       </c>
       <c r="C22">
-        <v>7.99237608056997</v>
+        <v>7.946761702085167</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.249615248554106</v>
+        <v>9.082526591197455</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>32.62962457093408</v>
+        <v>31.88975624787016</v>
       </c>
       <c r="H22">
-        <v>1.632397511434882</v>
+        <v>1.59103813791714</v>
       </c>
       <c r="I22">
-        <v>2.761799285810322</v>
+        <v>2.714392034999819</v>
       </c>
       <c r="J22">
-        <v>11.02167614156373</v>
+        <v>9.329577369108348</v>
       </c>
       <c r="K22">
-        <v>17.99274388975425</v>
+        <v>16.2079936500593</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.5519392883595</v>
       </c>
       <c r="M22">
-        <v>14.51798945564036</v>
+        <v>11.57175186980631</v>
       </c>
       <c r="N22">
-        <v>8.685234984275654</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.10396796617982</v>
       </c>
       <c r="P22">
-        <v>12.77533478916532</v>
+        <v>8.749454704887395</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.56127052028607</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.03961609714834</v>
+        <v>17.1663228369031</v>
       </c>
       <c r="C23">
-        <v>7.867060639717895</v>
+        <v>7.873949634399738</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.137566401417201</v>
+        <v>8.957023131811841</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>32.40686724619883</v>
+        <v>31.09171306587039</v>
       </c>
       <c r="H23">
-        <v>1.714153499206494</v>
+        <v>1.660544160384535</v>
       </c>
       <c r="I23">
-        <v>2.822377379962134</v>
+        <v>2.759844743753811</v>
       </c>
       <c r="J23">
-        <v>11.01324502830551</v>
+        <v>9.652378634305304</v>
       </c>
       <c r="K23">
-        <v>17.97160492789452</v>
+        <v>16.32947683206794</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.67933890348515</v>
       </c>
       <c r="M23">
-        <v>14.26260300068168</v>
+        <v>11.60057833753848</v>
       </c>
       <c r="N23">
-        <v>8.570371055291675</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.91837588602223</v>
       </c>
       <c r="P23">
-        <v>12.84315853270653</v>
+        <v>8.646084583059878</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.62550145403469</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.77379930974693</v>
+        <v>16.09223427955848</v>
       </c>
       <c r="C24">
-        <v>7.400804394622726</v>
+        <v>7.519638791298487</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.68991201509651</v>
+        <v>8.49259730225868</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>31.47421217112188</v>
+        <v>28.87566608549476</v>
       </c>
       <c r="H24">
-        <v>2.032336554668248</v>
+        <v>1.936805073091</v>
       </c>
       <c r="I24">
-        <v>3.077986865107328</v>
+        <v>2.966458243832628</v>
       </c>
       <c r="J24">
-        <v>10.96877854623316</v>
+        <v>10.56971006378724</v>
       </c>
       <c r="K24">
-        <v>17.85633317809619</v>
+        <v>16.61479003281432</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.05277648652324</v>
       </c>
       <c r="M24">
-        <v>13.24442697911362</v>
+        <v>11.57503671105622</v>
       </c>
       <c r="N24">
-        <v>8.123571353735102</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.09319931334197</v>
       </c>
       <c r="P24">
-        <v>13.09708151382013</v>
+        <v>8.231683774568324</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.87341828549529</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.29300119756415</v>
+        <v>14.70617812937362</v>
       </c>
       <c r="C25">
-        <v>6.874878148799503</v>
+        <v>6.91232030937358</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.17895189715035</v>
+        <v>8.025018562722568</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>30.49762369187761</v>
+        <v>28.14528558813787</v>
       </c>
       <c r="H25">
-        <v>2.390211992678209</v>
+        <v>2.262269550075537</v>
       </c>
       <c r="I25">
-        <v>3.368026047790138</v>
+        <v>3.217485033341101</v>
       </c>
       <c r="J25">
-        <v>10.93428785489174</v>
+        <v>10.62321228009106</v>
       </c>
       <c r="K25">
-        <v>17.74933025563372</v>
+        <v>16.65965097806161</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.26800320212276</v>
       </c>
       <c r="M25">
-        <v>12.0527145060475</v>
+        <v>11.37798288551642</v>
       </c>
       <c r="N25">
-        <v>7.614345603859811</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.95467339159079</v>
       </c>
       <c r="P25">
-        <v>13.37466652980926</v>
+        <v>7.733717573611846</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.135696240574</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
